--- a/GCMDataBase.xlsx
+++ b/GCMDataBase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="workers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7643" uniqueCount="3293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7368" uniqueCount="3338">
   <si>
     <t>domainName</t>
   </si>
@@ -9911,6 +9911,145 @@
   </si>
   <si>
     <t xml:space="preserve"> Przychodnia Kardiologiczna</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>35+D103:D175</t>
+  </si>
+  <si>
+    <t>Zastępca Dyrektora ds. Ekonomiczno – Finansowych  mgr Sabina Gruchlik MBA</t>
+  </si>
+  <si>
+    <t>Główny Księgowy mgr Robert Duda</t>
+  </si>
+  <si>
+    <t>Sekretariat</t>
+  </si>
+  <si>
+    <t>Sala konferencyjna</t>
+  </si>
+  <si>
+    <t>Oddział Kardiochirurgii Pracownia naukowa</t>
+  </si>
+  <si>
+    <t>Oddział Elektrokardiologii Pracownia naukowa</t>
+  </si>
+  <si>
+    <t>Główny Specjalista ds. Technologii Informacyjnych Norbert Przemyk</t>
+  </si>
+  <si>
+    <t>Toaleta damska</t>
+  </si>
+  <si>
+    <t>Toaleta męska/ niepełnosprawnego</t>
+  </si>
+  <si>
+    <t>Brudownik</t>
+  </si>
+  <si>
+    <t>Łazienka personelu</t>
+  </si>
+  <si>
+    <t>Dział Informatyki Kierownik</t>
+  </si>
+  <si>
+    <t>Dział Informatyki Zastępca Kierownika</t>
+  </si>
+  <si>
+    <t>Apteka Szpitalna Magazyn Sprzętu Kardiologicznego</t>
+  </si>
+  <si>
+    <t>Kierownik Zakładu Kardiologii Inwazyjnej prof. Dr hab. N. med. I n. o zdr. Paweł Gąsior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zastępca Kierownika Zakładu Kardiologii Inwazyjnej ds. Administracji i Rozliczeń mgr inż. Wioletta Żarnowska Koordynator ds. TAVI mgr Anna Sumara
+</t>
+  </si>
+  <si>
+    <t>Zakład Kardiologii Inwazyjnej Sekretariat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kierownik Zakładu Kardiologii Inwazyjnej i Elektrokardiologii Wydział Nauk Medycznych w Katowicach Śląski Uniwersytet Medyczny w Katowicach prof. dr hab. n. med. Andrzej Ochała
+</t>
+  </si>
+  <si>
+    <t>Zakład Kardiologii Inwazyjnej Dyżurka Lekarska</t>
+  </si>
+  <si>
+    <t>Koordynator Programu KOS Zawał</t>
+  </si>
+  <si>
+    <t>Fundacja na Rzecz Kardiologii</t>
+  </si>
+  <si>
+    <t>Pracownia Nieinwazyjnej Diagnostyki Kardiologicznej Pracownia Telemetrii</t>
+  </si>
+  <si>
+    <t>Pracownia Naukowa prof. dr. hab. n. med. Rafał Młynarski</t>
+  </si>
+  <si>
+    <t>Dział Fizyki Medycznej Koordynator ds. Ochrony Radiologicznej</t>
+  </si>
+  <si>
+    <t>Pracownia Nieinwazyjnej Diagnostyki Kardiologicznej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pracownia Nieinwazyjnej Diagnostyki Kardiologicznej Pracownia Ergometrii (Próba wysiłkowa) </t>
+  </si>
+  <si>
+    <t>Pracownia Nieinwazyjnej Diagnostyki Kardiologicznej Pracownia Badań</t>
+  </si>
+  <si>
+    <t>Pracownia Nieinwazyjnej Diagnostyki Kardiologicznej Tilt Test</t>
+  </si>
+  <si>
+    <t>Pracownia Nieinwazyjnej Diagnostyki Kardiologicznej Pokój Opisów</t>
+  </si>
+  <si>
+    <t>Zakład Patomorfologii Pracownia Biopsji</t>
+  </si>
+  <si>
+    <t>Sala Konferencyjna</t>
+  </si>
+  <si>
+    <t>Lekarz Kierujący III Oddziałem Kardiologii</t>
+  </si>
+  <si>
+    <t>Kierownik Kliniki Kardiologii i Chorób Strukturalnych Serca, III Katedry Kardiologii prof. dr hab. n. med. Wojciech Wojakowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kierownik Pracowni Elektrofizjologii i Ablacji I Oddział Kardiologii dr hab. n. med. Anna Wnuk-Wojnar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zakład Kardiologii Inwazyjnej Pielęgniarka Oddziałowa
+</t>
+  </si>
+  <si>
+    <t>Zakład Kardiologii Inwazyjnej Szatnia</t>
+  </si>
+  <si>
+    <t>II Oddział Kardiologi</t>
+  </si>
+  <si>
+    <t>Pracownia Naukowa - III Oddział Kardiologii</t>
+  </si>
+  <si>
+    <t>sala konferencyjna</t>
+  </si>
+  <si>
+    <t>pracownia</t>
+  </si>
+  <si>
+    <t>brudownik</t>
+  </si>
+  <si>
+    <t>pracownia naukowa</t>
+  </si>
+  <si>
+    <t>szatnia</t>
   </si>
 </sst>
 </file>
@@ -9950,14 +10089,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF111111"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -9971,8 +10102,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9983,11 +10122,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -10015,13 +10149,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10045,8 +10178,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -10054,13 +10187,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="2" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="1"/>
-    <cellStyle name="Zły" xfId="3" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10340,8 +10473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1452"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31791,8 +31924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K239"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31806,7 +31939,7 @@
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="87.5703125" customWidth="1"/>
+    <col min="11" max="11" width="95.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -33039,7 +33172,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -33074,7 +33207,7 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -33657,8 +33790,8 @@
       <c r="C55" t="s">
         <v>3209</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>3096</v>
+      <c r="D55" s="22" t="s">
+        <v>3294</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>3051</v>
@@ -34104,50 +34237,56 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="22">
-        <v>63</v>
-      </c>
-      <c r="B69" s="22">
+      <c r="A69">
         <v>1</v>
       </c>
-      <c r="C69" s="22" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22">
-        <v>17</v>
-      </c>
-      <c r="G69" s="22">
-        <v>4</v>
-      </c>
-      <c r="H69" s="22" t="s">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3293</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3051</v>
+      </c>
+      <c r="F69" s="4">
+        <v>20</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
         <v>3053</v>
       </c>
-      <c r="I69" s="22" t="s">
+      <c r="I69" t="s">
         <v>3053</v>
       </c>
-      <c r="J69" s="22" t="s">
+      <c r="J69" t="s">
         <v>3052</v>
+      </c>
+      <c r="K69" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D70" s="3"/>
-      <c r="E70" s="5"/>
+      <c r="E70" s="5" t="s">
+        <v>3051</v>
+      </c>
       <c r="F70" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G70" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>3053</v>
@@ -34158,24 +34297,31 @@
       <c r="J70" s="6" t="s">
         <v>3053</v>
       </c>
+      <c r="K70" t="s">
+        <v>3297</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="5"/>
+        <v>3293</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>3092</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>3051</v>
+      </c>
       <c r="F71" s="8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G71" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>3053</v>
@@ -34186,25 +34332,28 @@
       <c r="J71" s="6" t="s">
         <v>3053</v>
       </c>
+      <c r="K71" t="s">
+        <v>3296</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="5"/>
+      <c r="E72" s="5" t="s">
+        <v>3333</v>
+      </c>
       <c r="F72" s="8">
-        <v>14</v>
-      </c>
-      <c r="G72" s="8">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G72" s="8"/>
       <c r="H72" s="6" t="s">
         <v>3052</v>
       </c>
@@ -34214,21 +34363,28 @@
       <c r="J72" s="6" t="s">
         <v>3052</v>
       </c>
+      <c r="K72" t="s">
+        <v>3298</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="5"/>
+        <v>3293</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>3021</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>3336</v>
+      </c>
       <c r="F73" s="8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G73" s="8">
         <v>3</v>
@@ -34242,24 +34398,31 @@
       <c r="J73" s="6" t="s">
         <v>3052</v>
       </c>
+      <c r="K73" t="s">
+        <v>3332</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="5"/>
+        <v>3293</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>3223</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>3336</v>
+      </c>
       <c r="F74" s="8">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G74" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>3053</v>
@@ -34270,24 +34433,31 @@
       <c r="J74" s="6" t="s">
         <v>3053</v>
       </c>
+      <c r="K74" t="s">
+        <v>3300</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="5"/>
+        <v>3293</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>3223</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>3336</v>
+      </c>
       <c r="F75" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G75" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>3053</v>
@@ -34298,21 +34468,28 @@
       <c r="J75" s="6" t="s">
         <v>3053</v>
       </c>
+      <c r="K75" s="4" t="s">
+        <v>3300</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="5"/>
+        <v>3293</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>3223</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>3336</v>
+      </c>
       <c r="F76" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G76" s="8">
         <v>2</v>
@@ -34326,24 +34503,31 @@
       <c r="J76" s="6" t="s">
         <v>3053</v>
       </c>
+      <c r="K76" s="4" t="s">
+        <v>3299</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="5"/>
+        <v>3293</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>3015</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>3336</v>
+      </c>
       <c r="F77" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G77" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>3052</v>
@@ -34354,24 +34538,31 @@
       <c r="J77" s="6" t="s">
         <v>3053</v>
       </c>
+      <c r="K77" s="4" t="s">
+        <v>3231</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="5"/>
+        <v>3293</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>3331</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>3336</v>
+      </c>
       <c r="F78" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G78" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>3052</v>
@@ -34382,28 +34573,31 @@
       <c r="J78" s="6" t="s">
         <v>3053</v>
       </c>
+      <c r="K78" s="4" t="s">
+        <v>3231</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>3018</v>
+        <v>3331</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>3051</v>
       </c>
       <c r="F79" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G79" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>3053</v>
@@ -34414,25 +34608,28 @@
       <c r="J79" s="6" t="s">
         <v>3053</v>
       </c>
+      <c r="K79" t="s">
+        <v>3090</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>3018</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>3049</v>
+        <v>3076</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>3051</v>
       </c>
       <c r="F80" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G80" s="8">
         <v>3</v>
@@ -34446,28 +34643,31 @@
       <c r="J80" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>3048</v>
+        <v>3076</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>3051</v>
       </c>
       <c r="F81" s="8">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G81" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>3052</v>
@@ -34478,28 +34678,31 @@
       <c r="J81" s="6" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>3038</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>3048</v>
+        <v>3293</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>3074</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>3051</v>
       </c>
       <c r="F82" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G82" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>3052</v>
@@ -34510,29 +34713,28 @@
       <c r="J82" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>3032</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D83" s="3"/>
       <c r="E83" s="5" t="s">
-        <v>3050</v>
+        <v>3233</v>
       </c>
       <c r="F83" s="8">
-        <v>10</v>
-      </c>
-      <c r="G83" s="8">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" s="8"/>
       <c r="H83" s="6" t="s">
         <v>3053</v>
       </c>
@@ -34542,29 +34744,28 @@
       <c r="J83" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="4" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>3006</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D84" s="3"/>
       <c r="E84" s="5" t="s">
-        <v>3051</v>
+        <v>3233</v>
       </c>
       <c r="F84" s="8">
-        <v>12</v>
-      </c>
-      <c r="G84" s="8">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G84" s="8"/>
       <c r="H84" s="6" t="s">
         <v>3053</v>
       </c>
@@ -34574,29 +34775,28 @@
       <c r="J84" s="6" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="4" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>3036</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D85" s="3"/>
       <c r="E85" s="5" t="s">
-        <v>3051</v>
+        <v>3335</v>
       </c>
       <c r="F85" s="8">
-        <v>25</v>
-      </c>
-      <c r="G85" s="8">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G85" s="8"/>
       <c r="H85" s="6" t="s">
         <v>3053</v>
       </c>
@@ -34606,29 +34806,28 @@
       <c r="J85" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="4" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>3018</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D86" s="3"/>
       <c r="E86" s="5" t="s">
-        <v>3051</v>
+        <v>3233</v>
       </c>
       <c r="F86" s="8">
-        <v>8</v>
-      </c>
-      <c r="G86" s="8">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" s="8"/>
       <c r="H86" s="6" t="s">
         <v>3053</v>
       </c>
@@ -34638,28 +34837,31 @@
       <c r="J86" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="4" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>3041</v>
+        <v>3076</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>3048</v>
+        <v>3051</v>
       </c>
       <c r="F87" s="8">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G87" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>3052</v>
@@ -34670,28 +34872,31 @@
       <c r="J87" s="6" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="4" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>3023</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>3050</v>
+        <v>3293</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>3051</v>
       </c>
       <c r="F88" s="8">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G88" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>3053</v>
@@ -34702,25 +34907,28 @@
       <c r="J88" s="6" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="4" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E89" s="5" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E89" s="12" t="s">
         <v>3051</v>
       </c>
       <c r="F89" s="8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G89" s="8">
         <v>2</v>
@@ -34734,25 +34942,28 @@
       <c r="J89" s="6" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="4" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>3029</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>3050</v>
+        <v>3293</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>3051</v>
       </c>
       <c r="F90" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G90" s="8">
         <v>4</v>
@@ -34766,28 +34977,31 @@
       <c r="J90" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="4" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>3040</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>3048</v>
+        <v>3293</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>3051</v>
       </c>
       <c r="F91" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G91" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>3052</v>
@@ -34798,28 +35012,31 @@
       <c r="J91" s="6" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="4" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>3008</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>3048</v>
+        <v>3293</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>3051</v>
       </c>
       <c r="F92" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G92" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>3052</v>
@@ -34830,28 +35047,31 @@
       <c r="J92" s="6" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="4" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>3005</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>3050</v>
+        <v>3293</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>3051</v>
       </c>
       <c r="F93" s="8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G93" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>3053</v>
@@ -34862,25 +35082,28 @@
       <c r="J93" s="6" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="4" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>3015</v>
-      </c>
-      <c r="E94" s="5" t="s">
+        <v>3293</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E94" s="12" t="s">
         <v>3051</v>
       </c>
       <c r="F94" s="8">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G94" s="8">
         <v>3</v>
@@ -34894,93 +35117,98 @@
       <c r="J94" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="4" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>3020</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>3048</v>
+        <v>3293</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>3051</v>
       </c>
       <c r="F95" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G95" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H95" s="6" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I95" s="6" t="s">
         <v>3052</v>
       </c>
-      <c r="I95" s="6" t="s">
-        <v>3053</v>
-      </c>
       <c r="J95" s="6" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3052</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>3051</v>
+        <v>3246</v>
       </c>
       <c r="F96" s="8">
-        <v>17</v>
-      </c>
-      <c r="G96" s="8">
-        <v>4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G96" s="8"/>
       <c r="H96" s="6" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I96" s="6" t="s">
         <v>3053</v>
       </c>
-      <c r="I96" s="6" t="s">
-        <v>3052</v>
-      </c>
       <c r="J96" s="6" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3053</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>3012</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>3048</v>
+        <v>3293</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>3246</v>
       </c>
       <c r="F97" s="8">
-        <v>24</v>
-      </c>
-      <c r="G97" s="8">
-        <v>3</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G97" s="8"/>
       <c r="H97" s="6" t="s">
         <v>3052</v>
       </c>
@@ -34990,92 +35218,99 @@
       <c r="J97" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="4" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>3023</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>3049</v>
+        <v>3293</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>3246</v>
       </c>
       <c r="F98" s="8">
-        <v>16</v>
-      </c>
-      <c r="G98" s="8">
-        <v>2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G98" s="8"/>
       <c r="H98" s="6" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I98" s="6" t="s">
         <v>3052</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>3053</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="4" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>3038</v>
+        <v>3061</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>3051</v>
       </c>
       <c r="F99" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G99" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H99" s="6" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I99" s="6" t="s">
         <v>3053</v>
       </c>
-      <c r="I99" s="6" t="s">
+      <c r="J99" s="6" t="s">
         <v>3052</v>
       </c>
-      <c r="J99" s="6" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="4" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>3042</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>3048</v>
+        <v>3293</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>3051</v>
       </c>
       <c r="F100" s="8">
         <v>18</v>
       </c>
       <c r="G100" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>3052</v>
@@ -35084,91 +35319,100 @@
         <v>3053</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3053</v>
+      </c>
+      <c r="K100" s="19" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>3014</v>
+        <v>3293</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>3061</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>3049</v>
+        <v>3051</v>
       </c>
       <c r="F101" s="8">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G101" s="8">
         <v>2</v>
       </c>
       <c r="H101" s="6" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I101" s="6" t="s">
         <v>3052</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>3053</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="20" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>96</v>
+        <v>302</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>3043</v>
+        <v>3293</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>3061</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>3051</v>
       </c>
       <c r="F102" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G102" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>3053</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="16" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>3012</v>
+        <v>3293</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>3061</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>3051</v>
+        <v>3229</v>
       </c>
       <c r="F103" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G103" s="8">
         <v>4</v>
@@ -35177,132 +35421,127 @@
         <v>3053</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="4" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>3018</v>
+        <v>3293</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>3061</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>3050</v>
+        <v>3229</v>
       </c>
       <c r="F104" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G104" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H104" s="6" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I104" s="6" t="s">
         <v>3053</v>
       </c>
-      <c r="I104" s="6" t="s">
+      <c r="J104" s="6" t="s">
         <v>3052</v>
       </c>
-      <c r="J104" s="6" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="4" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>3009</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D105" s="3"/>
       <c r="E105" s="5" t="s">
-        <v>3048</v>
+        <v>3233</v>
       </c>
       <c r="F105" s="8">
-        <v>14</v>
-      </c>
-      <c r="G105" s="8">
-        <v>4</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J105" s="6" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G105" s="8"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>3016</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D106" s="3"/>
       <c r="E106" s="5" t="s">
-        <v>3048</v>
+        <v>3051</v>
       </c>
       <c r="F106" s="8">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G106" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="I106" s="6" t="s">
         <v>3052</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3053</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>3021</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D107" s="3"/>
       <c r="E107" s="5" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="F107" s="8">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G107" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>3052</v>
@@ -35310,60 +35549,64 @@
       <c r="J107" s="6" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="4" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>3022</v>
+        <v>3061</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>3049</v>
+        <v>3334</v>
       </c>
       <c r="F108" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G108" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>3052</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3052</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>3034</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D109" s="3"/>
       <c r="E109" s="5" t="s">
-        <v>3051</v>
+        <v>3334</v>
       </c>
       <c r="F109" s="8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G109" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>3053</v>
@@ -35374,28 +35617,31 @@
       <c r="J109" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" s="20" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>3037</v>
+        <v>3047</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>3048</v>
+        <v>3051</v>
       </c>
       <c r="F110" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G110" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>3052</v>
@@ -35404,27 +35650,30 @@
         <v>3052</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3053</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>3044</v>
+        <v>3293</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>3047</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>3049</v>
+        <v>3051</v>
       </c>
       <c r="F111" s="8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G111" s="8">
         <v>2</v>
@@ -35436,33 +35685,36 @@
         <v>3052</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3053</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>3013</v>
+        <v>3061</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>3050</v>
+        <v>3334</v>
       </c>
       <c r="F112" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G112" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>3052</v>
@@ -35470,63 +35722,69 @@
       <c r="J112" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" s="20" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>3014</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>3049</v>
+        <v>3293</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>3334</v>
       </c>
       <c r="F113" s="8">
         <v>18</v>
       </c>
       <c r="G113" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="J113" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" s="20" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>3035</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>3049</v>
+        <v>3293</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>3334</v>
       </c>
       <c r="F114" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G114" s="8">
         <v>4</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="I114" s="6" t="s">
         <v>3052</v>
@@ -35534,31 +35792,34 @@
       <c r="J114" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" s="20" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>3034</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>3048</v>
+        <v>3293</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>3334</v>
       </c>
       <c r="F115" s="8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G115" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="I115" s="6" t="s">
         <v>3052</v>
@@ -35566,93 +35827,98 @@
       <c r="J115" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>3016</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>3050</v>
+        <v>3293</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>3334</v>
       </c>
       <c r="F116" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G116" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>3053</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3052</v>
+      </c>
+      <c r="K116" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>3017</v>
+        <v>3062</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>3051</v>
       </c>
       <c r="F117" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G117" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>3053</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="J117" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" s="20" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>3044</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D118" s="3"/>
       <c r="E118" s="5" t="s">
-        <v>3051</v>
+        <v>3333</v>
       </c>
       <c r="F118" s="8">
-        <v>20</v>
-      </c>
-      <c r="G118" s="8">
-        <v>4</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G118" s="8"/>
       <c r="H118" s="6" t="s">
         <v>3053</v>
       </c>
@@ -35662,25 +35928,28 @@
       <c r="J118" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" s="20" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>3026</v>
+        <v>3061</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="F119" s="8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G119" s="8">
         <v>3</v>
@@ -35689,68 +35958,74 @@
         <v>3053</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="J119" s="6" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>3037</v>
+        <v>3021</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>3051</v>
       </c>
       <c r="F120" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G120" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="J120" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>3035</v>
+        <v>3293</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>3021</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>3051</v>
       </c>
       <c r="F121" s="8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G121" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>3052</v>
@@ -35758,28 +36033,31 @@
       <c r="J121" s="6" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121" s="20" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>3032</v>
+        <v>3293</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>3021</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>3051</v>
       </c>
       <c r="F122" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G122" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>3053</v>
@@ -35790,28 +36068,31 @@
       <c r="J122" s="6" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122" s="20" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>3018</v>
+        <v>3032</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>3048</v>
+        <v>3051</v>
       </c>
       <c r="F123" s="8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G123" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>3052</v>
@@ -35820,30 +36101,33 @@
         <v>3052</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3052</v>
+      </c>
+      <c r="K123" s="16" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>3020</v>
+        <v>3061</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F124" s="8">
+        <v>3051</v>
+      </c>
+      <c r="F124" s="9">
         <v>18</v>
       </c>
-      <c r="G124" s="8">
-        <v>2</v>
+      <c r="G124" s="9">
+        <v>3</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>3052</v>
@@ -35852,1974 +36136,1734 @@
         <v>3052</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3052</v>
+      </c>
+      <c r="K124" s="16" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>3209</v>
+        <v>3293</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>3034</v>
+        <v>3061</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F125" s="8">
-        <v>18</v>
-      </c>
-      <c r="G125" s="8">
-        <v>4</v>
-      </c>
+        <v>3337</v>
+      </c>
+      <c r="F125" s="9">
+        <v>21</v>
+      </c>
+      <c r="G125" s="9"/>
       <c r="H125" s="6" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="I125" s="6" t="s">
         <v>3053</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3053</v>
+      </c>
+      <c r="K125" s="20" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>120</v>
+        <v>541</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>3012</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F126" s="8">
-        <v>10</v>
-      </c>
-      <c r="G126" s="8">
-        <v>4</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I126" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J126" s="6" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3293</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>121</v>
+        <v>542</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>3009</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F127" s="9">
-        <v>22</v>
-      </c>
-      <c r="G127" s="9">
-        <v>3</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I127" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J127" s="6" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3293</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>122</v>
+        <v>543</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>3045</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F128" s="9">
-        <v>13</v>
-      </c>
-      <c r="G128" s="9">
-        <v>3</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I128" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J128" s="6" t="s">
-        <v>3053</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>3015</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>3051</v>
-      </c>
-      <c r="F129" s="9">
-        <v>17</v>
-      </c>
-      <c r="G129" s="9">
-        <v>4</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I129" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J129" s="6" t="s">
-        <v>3052</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>3008</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F130" s="9">
-        <v>16</v>
-      </c>
-      <c r="G130" s="9">
-        <v>4</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I130" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J130" s="6" t="s">
-        <v>3052</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D130" s="9"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>3009</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F131" s="9">
-        <v>15</v>
-      </c>
-      <c r="G131" s="9">
-        <v>4</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I131" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J131" s="6" t="s">
-        <v>3052</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D131" s="9"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F132" s="9">
-        <v>14</v>
-      </c>
-      <c r="G132" s="9">
-        <v>4</v>
-      </c>
-      <c r="H132" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I132" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J132" s="6" t="s">
-        <v>3053</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D132" s="9"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>3025</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F133" s="9">
-        <v>23</v>
-      </c>
-      <c r="G133" s="9">
-        <v>3</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I133" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J133" s="6" t="s">
-        <v>3053</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D133" s="9"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>128</v>
+        <v>601</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>3032</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F134" s="9">
-        <v>22</v>
-      </c>
-      <c r="G134" s="9">
-        <v>4</v>
-      </c>
-      <c r="H134" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I134" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J134" s="6" t="s">
-        <v>3052</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D134" s="9"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>129</v>
+        <v>602</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>3033</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>3051</v>
-      </c>
-      <c r="F135" s="9">
-        <v>8</v>
-      </c>
-      <c r="G135" s="9">
-        <v>4</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J135" s="6" t="s">
-        <v>3053</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D135" s="9"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>3033</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F136" s="9">
-        <v>14</v>
-      </c>
-      <c r="G136" s="9">
-        <v>2</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J136" s="6" t="s">
-        <v>3053</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D136" s="9"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>3018</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F137" s="9">
-        <v>16</v>
-      </c>
-      <c r="G137" s="9">
-        <v>4</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I137" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J137" s="6" t="s">
-        <v>3053</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D137" s="9"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>3032</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F138" s="9">
-        <v>12</v>
-      </c>
-      <c r="G138" s="9">
-        <v>3</v>
-      </c>
-      <c r="H138" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I138" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J138" s="6" t="s">
-        <v>3052</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>3033</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>3051</v>
-      </c>
-      <c r="F139" s="9">
-        <v>12</v>
-      </c>
-      <c r="G139" s="9">
-        <v>4</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I139" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J139" s="6" t="s">
-        <v>3053</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D139" s="9"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>3047</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F140" s="9">
-        <v>14</v>
-      </c>
-      <c r="G140" s="9">
-        <v>3</v>
-      </c>
-      <c r="H140" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I140" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J140" s="6" t="s">
-        <v>3053</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D140" s="9"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>3007</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>3051</v>
-      </c>
-      <c r="F141" s="9">
-        <v>25</v>
-      </c>
-      <c r="G141" s="9">
-        <v>2</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I141" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J141" s="6" t="s">
-        <v>3053</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D141" s="9"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>136</v>
+        <v>671</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>3036</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>3051</v>
-      </c>
-      <c r="F142" s="9">
-        <v>19</v>
-      </c>
-      <c r="G142" s="9">
-        <v>4</v>
-      </c>
-      <c r="H142" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I142" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J142" s="6" t="s">
-        <v>3053</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D142" s="9"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>137</v>
+        <v>672</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>3018</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F143" s="9">
-        <v>10</v>
-      </c>
-      <c r="G143" s="9">
-        <v>3</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I143" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J143" s="6" t="s">
-        <v>3052</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>138</v>
+        <v>673</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>3043</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F144" s="9">
-        <v>12</v>
-      </c>
-      <c r="G144" s="9">
-        <v>4</v>
-      </c>
-      <c r="H144" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I144" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J144" s="6" t="s">
-        <v>3052</v>
-      </c>
+        <v>3293</v>
+      </c>
+      <c r="D144" s="9"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>3031</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>3049</v>
+        <v>3054</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>3051</v>
       </c>
       <c r="F145" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G145" s="9">
-        <v>4</v>
-      </c>
-      <c r="H145" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I145" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="I145" s="6" t="s">
+      <c r="J145" s="9" t="s">
         <v>3053</v>
-      </c>
-      <c r="J145" s="6" t="s">
-        <v>3052</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>3039</v>
-      </c>
-      <c r="E146" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E146" s="9" t="s">
         <v>3051</v>
       </c>
       <c r="F146" s="9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G146" s="9">
-        <v>3</v>
-      </c>
-      <c r="H146" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H146" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="I146" s="6" t="s">
+      <c r="I146" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="J146" s="6" t="s">
+      <c r="J146" s="9" t="s">
         <v>3053</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>3028</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>3050</v>
+        <v>3054</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>3051</v>
       </c>
       <c r="F147" s="9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G147" s="9">
-        <v>3</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I147" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J147" s="6" t="s">
-        <v>3053</v>
+        <v>4</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>3052</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>3008</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>3048</v>
+        <v>3054</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>3051</v>
       </c>
       <c r="F148" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G148" s="9">
-        <v>4</v>
-      </c>
-      <c r="H148" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H148" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="I148" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J148" s="6" t="s">
+      <c r="I148" s="9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="J148" s="9" t="s">
         <v>3052</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>3009</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>3050</v>
+        <v>3054</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>3051</v>
       </c>
       <c r="F149" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G149" s="9">
-        <v>2</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I149" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J149" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="J149" s="9" t="s">
         <v>3052</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>3016</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>3050</v>
+        <v>3054</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>3051</v>
       </c>
       <c r="F150" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G150" s="9">
         <v>4</v>
       </c>
-      <c r="H150" s="6" t="s">
+      <c r="H150" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="I150" s="6" t="s">
+      <c r="I150" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="J150" s="6" t="s">
+      <c r="J150" s="9" t="s">
         <v>3053</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>3041</v>
-      </c>
-      <c r="E151" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E151" s="9" t="s">
         <v>3050</v>
       </c>
       <c r="F151" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G151" s="9">
-        <v>3</v>
-      </c>
-      <c r="H151" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I151" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="I151" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J151" s="6" t="s">
-        <v>3053</v>
+      <c r="J151" s="9" t="s">
+        <v>3052</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>3044</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>3048</v>
+        <v>3054</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>3050</v>
       </c>
       <c r="F152" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G152" s="9">
-        <v>2</v>
-      </c>
-      <c r="H152" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H152" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="I152" s="6" t="s">
+      <c r="I152" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="J152" s="6" t="s">
-        <v>3053</v>
+      <c r="J152" s="9" t="s">
+        <v>3052</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>3022</v>
-      </c>
-      <c r="E153" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E153" s="9" t="s">
         <v>3050</v>
       </c>
       <c r="F153" s="9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G153" s="9">
-        <v>2</v>
-      </c>
-      <c r="H153" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H153" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="I153" s="6" t="s">
+      <c r="I153" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="J153" s="6" t="s">
-        <v>3053</v>
+      <c r="J153" s="9" t="s">
+        <v>3052</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>3034</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>3050</v>
+        <v>3054</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>3048</v>
       </c>
       <c r="F154" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G154" s="9">
         <v>3</v>
       </c>
-      <c r="H154" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I154" s="6" t="s">
+      <c r="H154" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="J154" s="6" t="s">
+      <c r="I154" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="J154" s="9" t="s">
         <v>3053</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>3022</v>
-      </c>
-      <c r="E155" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E155" s="9" t="s">
         <v>3050</v>
       </c>
       <c r="F155" s="9">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G155" s="9">
-        <v>4</v>
-      </c>
-      <c r="H155" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H155" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="I155" s="6" t="s">
+      <c r="I155" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="J155" s="6" t="s">
+      <c r="J155" s="9" t="s">
         <v>3053</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>3020</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>3049</v>
+        <v>3054</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>3025</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>3050</v>
       </c>
       <c r="F156" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G156" s="9">
         <v>4</v>
       </c>
-      <c r="H156" s="6" t="s">
+      <c r="H156" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="I156" s="6" t="s">
+      <c r="I156" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="J156" s="6" t="s">
-        <v>3053</v>
+      <c r="J156" s="9" t="s">
+        <v>3052</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>3007</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>3051</v>
+        <v>3054</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>3050</v>
       </c>
       <c r="F157" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G157" s="9">
-        <v>3</v>
-      </c>
-      <c r="H157" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="J157" s="9" t="s">
         <v>3053</v>
-      </c>
-      <c r="I157" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J157" s="6" t="s">
-        <v>3052</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>3050</v>
+        <v>3054</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>3033</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>3049</v>
       </c>
       <c r="F158" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G158" s="9">
-        <v>2</v>
-      </c>
-      <c r="H158" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I158" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="I158" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J158" s="6" t="s">
+      <c r="J158" s="9" t="s">
         <v>3053</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>3006</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>3050</v>
+        <v>3054</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>3033</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>3051</v>
       </c>
       <c r="F159" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G159" s="9">
         <v>4</v>
       </c>
-      <c r="H159" s="6" t="s">
+      <c r="H159" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I159" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="I159" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J159" s="6" t="s">
+      <c r="J159" s="9" t="s">
         <v>3053</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>3015</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>3048</v>
+        <v>3054</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>3018</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>3050</v>
       </c>
       <c r="F160" s="9">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G160" s="9">
         <v>3</v>
       </c>
-      <c r="H160" s="6" t="s">
+      <c r="H160" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="I160" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J160" s="6" t="s">
+      <c r="I160" s="9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="J160" s="9" t="s">
         <v>3052</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>3033</v>
-      </c>
-      <c r="E161" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E161" s="9" t="s">
         <v>3050</v>
       </c>
       <c r="F161" s="9">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G161" s="9">
-        <v>2</v>
-      </c>
-      <c r="H161" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I161" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="I161" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J161" s="6" t="s">
+      <c r="J161" s="9" t="s">
         <v>3053</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>3015</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>3050</v>
+        <v>3054</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>3033</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>3048</v>
       </c>
       <c r="F162" s="9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G162" s="9">
         <v>4</v>
       </c>
-      <c r="H162" s="6" t="s">
+      <c r="H162" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="I162" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J162" s="6" t="s">
+      <c r="I162" s="9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="J162" s="9" t="s">
         <v>3053</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>3048</v>
+        <v>3054</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>3047</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>3050</v>
       </c>
       <c r="F163" s="9">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G163" s="9">
-        <v>4</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I163" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J163" s="6" t="s">
-        <v>3052</v>
+        <v>3</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>3053</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>3020</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>3049</v>
+        <v>3054</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>3007</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>3050</v>
       </c>
       <c r="F164" s="9">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G164" s="9">
         <v>2</v>
       </c>
-      <c r="H164" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I164" s="6" t="s">
+      <c r="H164" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="J164" s="6" t="s">
-        <v>3052</v>
+      <c r="I164" s="9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="J164" s="9" t="s">
+        <v>3053</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E165" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E165" s="9" t="s">
         <v>3048</v>
       </c>
       <c r="F165" s="9">
         <v>14</v>
       </c>
       <c r="G165" s="9">
-        <v>4</v>
-      </c>
-      <c r="H165" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I165" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J165" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="J165" s="9" t="s">
         <v>3052</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>3039</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>3051</v>
+        <v>3054</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>3018</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>3049</v>
       </c>
       <c r="F166" s="9">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G166" s="9">
-        <v>4</v>
-      </c>
-      <c r="H166" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I166" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H166" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="J166" s="6" t="s">
-        <v>3053</v>
+      <c r="I166" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="J166" s="9" t="s">
+        <v>3052</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E167" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>3043</v>
+      </c>
+      <c r="E167" s="9" t="s">
         <v>3048</v>
       </c>
       <c r="F167" s="9">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G167" s="9">
-        <v>4</v>
-      </c>
-      <c r="H167" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H167" s="9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I167" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="I167" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J167" s="6" t="s">
+      <c r="J167" s="9" t="s">
         <v>3052</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>3009</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>3049</v>
+        <v>3054</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>3031</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>3051</v>
       </c>
       <c r="F168" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G168" s="9">
-        <v>3</v>
-      </c>
-      <c r="H168" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H168" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="I168" s="6" t="s">
+      <c r="I168" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="J168" s="6" t="s">
-        <v>3052</v>
+      <c r="J168" s="9" t="s">
+        <v>3053</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>3029</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>3050</v>
+        <v>3054</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>3039</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>3048</v>
       </c>
       <c r="F169" s="9">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G169" s="9">
-        <v>3</v>
-      </c>
-      <c r="H169" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H169" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="I169" s="6" t="s">
+      <c r="I169" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="J169" s="6" t="s">
-        <v>3052</v>
+      <c r="J169" s="9" t="s">
+        <v>3053</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>3025</v>
-      </c>
-      <c r="E170" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>3028</v>
+      </c>
+      <c r="E170" s="9" t="s">
         <v>3049</v>
       </c>
       <c r="F170" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G170" s="9">
-        <v>3</v>
-      </c>
-      <c r="H170" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H170" s="9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I170" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="I170" s="6" t="s">
+      <c r="J170" s="9" t="s">
         <v>3052</v>
-      </c>
-      <c r="J170" s="6" t="s">
-        <v>3053</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>3032</v>
-      </c>
-      <c r="E171" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>3008</v>
+      </c>
+      <c r="E171" s="9" t="s">
         <v>3050</v>
       </c>
       <c r="F171" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G171" s="9">
         <v>2</v>
       </c>
-      <c r="H171" s="6" t="s">
+      <c r="H171" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="I171" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J171" s="6" t="s">
+      <c r="I171" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="J171" s="9" t="s">
         <v>3053</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>3033</v>
-      </c>
-      <c r="E172" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>3009</v>
+      </c>
+      <c r="E172" s="9" t="s">
         <v>3049</v>
       </c>
       <c r="F172" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G172" s="9">
         <v>4</v>
       </c>
-      <c r="H172" s="6" t="s">
+      <c r="H172" s="9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I172" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="I172" s="6" t="s">
+      <c r="J172" s="9" t="s">
         <v>3053</v>
-      </c>
-      <c r="J172" s="6" t="s">
-        <v>3052</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>3033</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>3049</v>
+        <v>3054</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>3016</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>3050</v>
       </c>
       <c r="F173" s="9">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G173" s="9">
         <v>4</v>
       </c>
-      <c r="H173" s="6" t="s">
+      <c r="H173" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="I173" s="6" t="s">
+      <c r="I173" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="J173" s="6" t="s">
-        <v>3053</v>
+      <c r="J173" s="9" t="s">
+        <v>3052</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>3018</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>3048</v>
+        <v>3054</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>3021</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>3049</v>
       </c>
       <c r="F174" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G174" s="9">
-        <v>4</v>
-      </c>
-      <c r="H174" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H174" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="I174" s="6" t="s">
+      <c r="I174" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="J174" s="6" t="s">
-        <v>3053</v>
+      <c r="J174" s="9" t="s">
+        <v>3052</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>3032</v>
-      </c>
-      <c r="E175" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>3022</v>
+      </c>
+      <c r="E175" s="9" t="s">
         <v>3049</v>
       </c>
       <c r="F175" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G175" s="9">
         <v>4</v>
       </c>
-      <c r="H175" s="6" t="s">
+      <c r="H175" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="I175" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J175" s="6" t="s">
-        <v>3053</v>
+      <c r="I175" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="J175" s="9" t="s">
+        <v>3052</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D176" s="3"/>
-      <c r="E176" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>3034</v>
+      </c>
+      <c r="E176" s="9" t="s">
         <v>3048</v>
       </c>
       <c r="F176" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G176" s="9">
-        <v>3</v>
-      </c>
-      <c r="H176" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H176" s="9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I176" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="I176" s="6" t="s">
+      <c r="J176" s="9" t="s">
         <v>3053</v>
-      </c>
-      <c r="J176" s="6" t="s">
-        <v>3052</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D177" s="3"/>
-      <c r="E177" s="5" t="s">
-        <v>3048</v>
+        <v>3054</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>3037</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>3050</v>
       </c>
       <c r="F177" s="9">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G177" s="9">
         <v>4</v>
       </c>
-      <c r="H177" s="6" t="s">
+      <c r="H177" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="I177" s="6" t="s">
+      <c r="I177" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="J177" s="6" t="s">
-        <v>3053</v>
+      <c r="J177" s="9" t="s">
+        <v>3052</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D178" s="3"/>
-      <c r="E178" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>3044</v>
+      </c>
+      <c r="E178" s="9" t="s">
         <v>3050</v>
       </c>
       <c r="F178" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G178" s="9">
-        <v>4</v>
-      </c>
-      <c r="H178" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I178" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J178" s="6" t="s">
-        <v>3053</v>
+        <v>3</v>
+      </c>
+      <c r="H178" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I178" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="J178" s="9" t="s">
+        <v>3052</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D179" s="3"/>
-      <c r="E179" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E179" s="9" t="s">
         <v>3050</v>
       </c>
       <c r="F179" s="9">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G179" s="9">
         <v>3</v>
       </c>
-      <c r="H179" s="6" t="s">
+      <c r="H179" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="I179" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J179" s="6" t="s">
-        <v>3053</v>
+      <c r="I179" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="J179" s="9" t="s">
+        <v>3052</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D180" s="3"/>
-      <c r="E180" s="5" t="s">
-        <v>3050</v>
+        <v>3054</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>3014</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>3048</v>
       </c>
       <c r="F180" s="9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G180" s="9">
-        <v>2</v>
-      </c>
-      <c r="H180" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I180" s="6" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J180" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H180" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I180" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="J180" s="9" t="s">
         <v>3053</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D181" s="3"/>
-      <c r="E181" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>3035</v>
+      </c>
+      <c r="E181" s="9" t="s">
         <v>3050</v>
       </c>
       <c r="F181" s="9">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G181" s="9">
         <v>2</v>
       </c>
-      <c r="H181" s="6" t="s">
+      <c r="H181" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="I181" s="6" t="s">
+      <c r="I181" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="J181" s="6" t="s">
-        <v>3052</v>
+      <c r="J181" s="9" t="s">
+        <v>3053</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D182" s="3"/>
-      <c r="E182" s="5" t="s">
-        <v>3048</v>
+        <v>3054</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>3034</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>3050</v>
       </c>
       <c r="F182" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G182" s="9">
-        <v>3</v>
-      </c>
-      <c r="H182" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H182" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="I182" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J182" s="6" t="s">
+      <c r="I182" s="9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="J182" s="9" t="s">
         <v>3052</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D183" s="3"/>
-      <c r="E183" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>3016</v>
+      </c>
+      <c r="E183" s="9" t="s">
         <v>3050</v>
       </c>
       <c r="F183" s="9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G183" s="9">
-        <v>2</v>
-      </c>
-      <c r="H183" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H183" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I183" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="J183" s="9" t="s">
         <v>3053</v>
-      </c>
-      <c r="I183" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J183" s="6" t="s">
-        <v>3052</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D184" s="3"/>
-      <c r="E184" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>3017</v>
+      </c>
+      <c r="E184" s="9" t="s">
         <v>3049</v>
       </c>
       <c r="F184" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G184" s="9">
-        <v>2</v>
-      </c>
-      <c r="H184" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H184" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="I184" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J184" s="6" t="s">
+      <c r="I184" s="9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="J184" s="9" t="s">
         <v>3053</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D185" s="3"/>
-      <c r="E185" s="5" t="s">
-        <v>3050</v>
+        <v>3054</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>3044</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>3051</v>
       </c>
       <c r="F185" s="9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G185" s="9">
         <v>4</v>
       </c>
-      <c r="H185" s="6" t="s">
+      <c r="H185" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I185" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="I185" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J185" s="6" t="s">
+      <c r="J185" s="9" t="s">
         <v>3053</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D186" s="3"/>
-      <c r="E186" s="5" t="s">
-        <v>3051</v>
+        <v>3054</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>3016</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>3050</v>
       </c>
       <c r="F186" s="9">
         <v>10</v>
       </c>
       <c r="G186" s="9">
-        <v>4</v>
-      </c>
-      <c r="H186" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H186" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I186" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="I186" s="6" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J186" s="6" t="s">
+      <c r="J186" s="9" t="s">
         <v>3052</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B187">
         <v>7</v>
@@ -37827,23 +37871,23 @@
       <c r="C187" t="s">
         <v>3054</v>
       </c>
-      <c r="D187" s="4" t="s">
-        <v>3055</v>
+      <c r="D187" s="9" t="s">
+        <v>3021</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="F187" s="9">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G187" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H187" s="9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I187" s="9" t="s">
         <v>3053</v>
-      </c>
-      <c r="I187" s="9" t="s">
-        <v>3052</v>
       </c>
       <c r="J187" s="9" t="s">
         <v>3053</v>
@@ -37851,7 +37895,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B188">
         <v>7</v>
@@ -37859,14 +37903,14 @@
       <c r="C188" t="s">
         <v>3054</v>
       </c>
-      <c r="D188" s="4" t="s">
-        <v>3055</v>
+      <c r="D188" s="9" t="s">
+        <v>3022</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="F188" s="9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G188" s="9">
         <v>4</v>
@@ -37875,7 +37919,7 @@
         <v>3053</v>
       </c>
       <c r="I188" s="9" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="J188" s="9" t="s">
         <v>3053</v>
@@ -37883,7 +37927,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B189">
         <v>7</v>
@@ -37891,31 +37935,31 @@
       <c r="C189" t="s">
         <v>3054</v>
       </c>
-      <c r="D189" s="4" t="s">
-        <v>3055</v>
+      <c r="D189" s="9" t="s">
+        <v>3034</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="F189" s="9">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G189" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H189" s="9" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="I189" s="9" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="J189" s="9" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B190">
         <v>7</v>
@@ -37923,31 +37967,31 @@
       <c r="C190" t="s">
         <v>3054</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>3055</v>
+      <c r="D190" s="9" t="s">
+        <v>3037</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="F190" s="9">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G190" s="9">
         <v>2</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="I190" s="9" t="s">
         <v>3053</v>
       </c>
       <c r="J190" s="9" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B191">
         <v>7</v>
@@ -37955,23 +37999,23 @@
       <c r="C191" t="s">
         <v>3054</v>
       </c>
-      <c r="D191" s="4" t="s">
-        <v>3055</v>
+      <c r="D191" s="9" t="s">
+        <v>3044</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="F191" s="9">
         <v>14</v>
       </c>
       <c r="G191" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="J191" s="9" t="s">
         <v>3052</v>
@@ -37979,7 +38023,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B192">
         <v>7</v>
@@ -37987,31 +38031,31 @@
       <c r="C192" t="s">
         <v>3054</v>
       </c>
-      <c r="D192" s="4" t="s">
-        <v>3055</v>
+      <c r="D192" s="9" t="s">
+        <v>3013</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="F192" s="9">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G192" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H192" s="9" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="I192" s="9" t="s">
         <v>3052</v>
       </c>
       <c r="J192" s="9" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B193">
         <v>7</v>
@@ -38019,23 +38063,23 @@
       <c r="C193" t="s">
         <v>3054</v>
       </c>
-      <c r="D193" s="4" t="s">
-        <v>3055</v>
+      <c r="D193" s="9" t="s">
+        <v>3014</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="F193" s="9">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G193" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H193" s="9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I193" s="9" t="s">
         <v>3052</v>
-      </c>
-      <c r="I193" s="9" t="s">
-        <v>3053</v>
       </c>
       <c r="J193" s="9" t="s">
         <v>3052</v>
@@ -38043,7 +38087,7 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B194">
         <v>7</v>
@@ -38051,17 +38095,17 @@
       <c r="C194" t="s">
         <v>3054</v>
       </c>
-      <c r="D194" s="4" t="s">
-        <v>3055</v>
+      <c r="D194" s="9" t="s">
+        <v>3035</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="F194" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G194" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H194" s="9" t="s">
         <v>3052</v>
@@ -38070,1360 +38114,16 @@
         <v>3052</v>
       </c>
       <c r="J194" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>9</v>
-      </c>
-      <c r="B195">
-        <v>7</v>
-      </c>
-      <c r="C195" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>3055</v>
-      </c>
-      <c r="E195" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F195" s="9">
-        <v>10</v>
-      </c>
-      <c r="G195" s="9">
-        <v>3</v>
-      </c>
-      <c r="H195" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="I195" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J195" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>10</v>
-      </c>
-      <c r="B196">
-        <v>7</v>
-      </c>
-      <c r="C196" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>3055</v>
-      </c>
-      <c r="E196" s="9" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F196" s="9">
-        <v>15</v>
-      </c>
-      <c r="G196" s="9">
-        <v>3</v>
-      </c>
-      <c r="H196" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I196" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J196" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>11</v>
-      </c>
-      <c r="B197">
-        <v>7</v>
-      </c>
-      <c r="C197" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>3055</v>
-      </c>
-      <c r="E197" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F197" s="9">
-        <v>23</v>
-      </c>
-      <c r="G197" s="9">
-        <v>2</v>
-      </c>
-      <c r="H197" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I197" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J197" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>12</v>
-      </c>
-      <c r="B198">
-        <v>7</v>
-      </c>
-      <c r="C198" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D198" s="9" t="s">
-        <v>3025</v>
-      </c>
-      <c r="E198" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F198" s="9">
-        <v>12</v>
-      </c>
-      <c r="G198" s="9">
-        <v>4</v>
-      </c>
-      <c r="H198" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I198" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J198" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>13</v>
-      </c>
-      <c r="B199">
-        <v>7</v>
-      </c>
-      <c r="C199" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D199" s="9" t="s">
-        <v>3032</v>
-      </c>
-      <c r="E199" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F199" s="9">
-        <v>18</v>
-      </c>
-      <c r="G199" s="9">
-        <v>4</v>
-      </c>
-      <c r="H199" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I199" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J199" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>14</v>
-      </c>
-      <c r="B200">
-        <v>7</v>
-      </c>
-      <c r="C200" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D200" s="9" t="s">
-        <v>3033</v>
-      </c>
-      <c r="E200" s="9" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F200" s="9">
-        <v>21</v>
-      </c>
-      <c r="G200" s="9">
-        <v>4</v>
-      </c>
-      <c r="H200" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I200" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J200" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>15</v>
-      </c>
-      <c r="B201">
-        <v>7</v>
-      </c>
-      <c r="C201" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D201" s="9" t="s">
-        <v>3033</v>
-      </c>
-      <c r="E201" s="9" t="s">
-        <v>3051</v>
-      </c>
-      <c r="F201" s="9">
-        <v>13</v>
-      </c>
-      <c r="G201" s="9">
-        <v>4</v>
-      </c>
-      <c r="H201" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I201" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J201" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>16</v>
-      </c>
-      <c r="B202">
-        <v>7</v>
-      </c>
-      <c r="C202" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D202" s="9" t="s">
-        <v>3018</v>
-      </c>
-      <c r="E202" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F202" s="9">
-        <v>10</v>
-      </c>
-      <c r="G202" s="9">
-        <v>3</v>
-      </c>
-      <c r="H202" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I202" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J202" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>17</v>
-      </c>
-      <c r="B203">
-        <v>7</v>
-      </c>
-      <c r="C203" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D203" s="9" t="s">
-        <v>3032</v>
-      </c>
-      <c r="E203" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F203" s="9">
-        <v>9</v>
-      </c>
-      <c r="G203" s="9">
-        <v>4</v>
-      </c>
-      <c r="H203" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I203" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J203" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>18</v>
-      </c>
-      <c r="B204">
-        <v>7</v>
-      </c>
-      <c r="C204" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>3033</v>
-      </c>
-      <c r="E204" s="9" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F204" s="9">
-        <v>20</v>
-      </c>
-      <c r="G204" s="9">
-        <v>4</v>
-      </c>
-      <c r="H204" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I204" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J204" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>19</v>
-      </c>
-      <c r="B205">
-        <v>7</v>
-      </c>
-      <c r="C205" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>3047</v>
-      </c>
-      <c r="E205" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F205" s="9">
-        <v>23</v>
-      </c>
-      <c r="G205" s="9">
-        <v>3</v>
-      </c>
-      <c r="H205" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I205" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J205" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>20</v>
-      </c>
-      <c r="B206">
-        <v>7</v>
-      </c>
-      <c r="C206" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>3007</v>
-      </c>
-      <c r="E206" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F206" s="9">
-        <v>9</v>
-      </c>
-      <c r="G206" s="9">
-        <v>2</v>
-      </c>
-      <c r="H206" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I206" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J206" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>21</v>
-      </c>
-      <c r="B207">
-        <v>7</v>
-      </c>
-      <c r="C207" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>3036</v>
-      </c>
-      <c r="E207" s="9" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F207" s="9">
-        <v>14</v>
-      </c>
-      <c r="G207" s="9">
-        <v>2</v>
-      </c>
-      <c r="H207" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I207" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J207" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>22</v>
-      </c>
-      <c r="B208">
-        <v>7</v>
-      </c>
-      <c r="C208" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D208" s="9" t="s">
-        <v>3018</v>
-      </c>
-      <c r="E208" s="9" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F208" s="9">
-        <v>9</v>
-      </c>
-      <c r="G208" s="9">
-        <v>3</v>
-      </c>
-      <c r="H208" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I208" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J208" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>23</v>
-      </c>
-      <c r="B209">
-        <v>7</v>
-      </c>
-      <c r="C209" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D209" s="9" t="s">
-        <v>3043</v>
-      </c>
-      <c r="E209" s="9" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F209" s="9">
-        <v>13</v>
-      </c>
-      <c r="G209" s="9">
-        <v>2</v>
-      </c>
-      <c r="H209" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I209" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J209" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>24</v>
-      </c>
-      <c r="B210">
-        <v>7</v>
-      </c>
-      <c r="C210" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D210" s="9" t="s">
-        <v>3031</v>
-      </c>
-      <c r="E210" s="9" t="s">
-        <v>3051</v>
-      </c>
-      <c r="F210" s="9">
-        <v>18</v>
-      </c>
-      <c r="G210" s="9">
-        <v>2</v>
-      </c>
-      <c r="H210" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I210" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J210" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>25</v>
-      </c>
-      <c r="B211">
-        <v>7</v>
-      </c>
-      <c r="C211" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D211" s="9" t="s">
-        <v>3039</v>
-      </c>
-      <c r="E211" s="9" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F211" s="9">
-        <v>18</v>
-      </c>
-      <c r="G211" s="9">
-        <v>4</v>
-      </c>
-      <c r="H211" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I211" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J211" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>26</v>
-      </c>
-      <c r="B212">
-        <v>7</v>
-      </c>
-      <c r="C212" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D212" s="9" t="s">
-        <v>3028</v>
-      </c>
-      <c r="E212" s="9" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F212" s="9">
-        <v>10</v>
-      </c>
-      <c r="G212" s="9">
-        <v>4</v>
-      </c>
-      <c r="H212" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I212" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J212" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>27</v>
-      </c>
-      <c r="B213">
-        <v>7</v>
-      </c>
-      <c r="C213" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D213" s="9" t="s">
-        <v>3008</v>
-      </c>
-      <c r="E213" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F213" s="9">
-        <v>22</v>
-      </c>
-      <c r="G213" s="9">
-        <v>2</v>
-      </c>
-      <c r="H213" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I213" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J213" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>28</v>
-      </c>
-      <c r="B214">
-        <v>7</v>
-      </c>
-      <c r="C214" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D214" s="9" t="s">
-        <v>3009</v>
-      </c>
-      <c r="E214" s="9" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F214" s="9">
-        <v>14</v>
-      </c>
-      <c r="G214" s="9">
-        <v>4</v>
-      </c>
-      <c r="H214" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I214" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J214" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>29</v>
-      </c>
-      <c r="B215">
-        <v>7</v>
-      </c>
-      <c r="C215" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D215" s="9" t="s">
-        <v>3016</v>
-      </c>
-      <c r="E215" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F215" s="9">
-        <v>9</v>
-      </c>
-      <c r="G215" s="9">
-        <v>4</v>
-      </c>
-      <c r="H215" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I215" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J215" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>30</v>
-      </c>
-      <c r="B216">
-        <v>7</v>
-      </c>
-      <c r="C216" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D216" s="9" t="s">
-        <v>3021</v>
-      </c>
-      <c r="E216" s="9" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F216" s="9">
-        <v>17</v>
-      </c>
-      <c r="G216" s="9">
-        <v>2</v>
-      </c>
-      <c r="H216" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I216" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J216" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>31</v>
-      </c>
-      <c r="B217">
-        <v>7</v>
-      </c>
-      <c r="C217" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D217" s="9" t="s">
-        <v>3022</v>
-      </c>
-      <c r="E217" s="9" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F217" s="9">
-        <v>14</v>
-      </c>
-      <c r="G217" s="9">
-        <v>4</v>
-      </c>
-      <c r="H217" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I217" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J217" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>32</v>
-      </c>
-      <c r="B218">
-        <v>7</v>
-      </c>
-      <c r="C218" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D218" s="9" t="s">
-        <v>3034</v>
-      </c>
-      <c r="E218" s="9" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F218" s="9">
-        <v>25</v>
-      </c>
-      <c r="G218" s="9">
-        <v>4</v>
-      </c>
-      <c r="H218" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I218" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J218" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>33</v>
-      </c>
-      <c r="B219">
-        <v>7</v>
-      </c>
-      <c r="C219" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D219" s="9" t="s">
-        <v>3037</v>
-      </c>
-      <c r="E219" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F219" s="9">
-        <v>25</v>
-      </c>
-      <c r="G219" s="9">
-        <v>4</v>
-      </c>
-      <c r="H219" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I219" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J219" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>34</v>
-      </c>
-      <c r="B220">
-        <v>7</v>
-      </c>
-      <c r="C220" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D220" s="9" t="s">
-        <v>3044</v>
-      </c>
-      <c r="E220" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F220" s="9">
-        <v>15</v>
-      </c>
-      <c r="G220" s="9">
-        <v>3</v>
-      </c>
-      <c r="H220" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I220" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J220" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>35</v>
-      </c>
-      <c r="B221">
-        <v>7</v>
-      </c>
-      <c r="C221" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D221" s="9" t="s">
-        <v>3013</v>
-      </c>
-      <c r="E221" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F221" s="9">
-        <v>10</v>
-      </c>
-      <c r="G221" s="9">
-        <v>3</v>
-      </c>
-      <c r="H221" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I221" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J221" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>36</v>
-      </c>
-      <c r="B222">
-        <v>7</v>
-      </c>
-      <c r="C222" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D222" s="9" t="s">
-        <v>3014</v>
-      </c>
-      <c r="E222" s="9" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F222" s="9">
-        <v>15</v>
-      </c>
-      <c r="G222" s="9">
-        <v>3</v>
-      </c>
-      <c r="H222" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I222" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J222" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>37</v>
-      </c>
-      <c r="B223">
-        <v>7</v>
-      </c>
-      <c r="C223" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D223" s="9" t="s">
-        <v>3035</v>
-      </c>
-      <c r="E223" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F223" s="9">
-        <v>23</v>
-      </c>
-      <c r="G223" s="9">
-        <v>2</v>
-      </c>
-      <c r="H223" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I223" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J223" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>38</v>
-      </c>
-      <c r="B224">
-        <v>7</v>
-      </c>
-      <c r="C224" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D224" s="9" t="s">
-        <v>3034</v>
-      </c>
-      <c r="E224" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F224" s="9">
-        <v>12</v>
-      </c>
-      <c r="G224" s="9">
-        <v>4</v>
-      </c>
-      <c r="H224" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I224" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J224" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>39</v>
-      </c>
-      <c r="B225">
-        <v>7</v>
-      </c>
-      <c r="C225" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D225" s="9" t="s">
-        <v>3016</v>
-      </c>
-      <c r="E225" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F225" s="9">
-        <v>18</v>
-      </c>
-      <c r="G225" s="9">
-        <v>4</v>
-      </c>
-      <c r="H225" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I225" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J225" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>40</v>
-      </c>
-      <c r="B226">
-        <v>7</v>
-      </c>
-      <c r="C226" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>3017</v>
-      </c>
-      <c r="E226" s="9" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F226" s="9">
-        <v>21</v>
-      </c>
-      <c r="G226" s="9">
-        <v>4</v>
-      </c>
-      <c r="H226" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I226" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J226" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>41</v>
-      </c>
-      <c r="B227">
-        <v>7</v>
-      </c>
-      <c r="C227" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>3044</v>
-      </c>
-      <c r="E227" s="9" t="s">
-        <v>3051</v>
-      </c>
-      <c r="F227" s="9">
-        <v>13</v>
-      </c>
-      <c r="G227" s="9">
-        <v>4</v>
-      </c>
-      <c r="H227" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I227" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J227" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>42</v>
-      </c>
-      <c r="B228">
-        <v>7</v>
-      </c>
-      <c r="C228" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D228" s="9" t="s">
-        <v>3016</v>
-      </c>
-      <c r="E228" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F228" s="9">
-        <v>10</v>
-      </c>
-      <c r="G228" s="9">
-        <v>3</v>
-      </c>
-      <c r="H228" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I228" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J228" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>43</v>
-      </c>
-      <c r="B229">
-        <v>7</v>
-      </c>
-      <c r="C229" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>3021</v>
-      </c>
-      <c r="E229" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F229" s="9">
-        <v>9</v>
-      </c>
-      <c r="G229" s="9">
-        <v>4</v>
-      </c>
-      <c r="H229" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I229" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J229" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>44</v>
-      </c>
-      <c r="B230">
-        <v>7</v>
-      </c>
-      <c r="C230" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D230" s="9" t="s">
-        <v>3022</v>
-      </c>
-      <c r="E230" s="9" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F230" s="9">
-        <v>20</v>
-      </c>
-      <c r="G230" s="9">
-        <v>4</v>
-      </c>
-      <c r="H230" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I230" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J230" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>45</v>
-      </c>
-      <c r="B231">
-        <v>7</v>
-      </c>
-      <c r="C231" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D231" s="9" t="s">
-        <v>3034</v>
-      </c>
-      <c r="E231" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F231" s="9">
-        <v>23</v>
-      </c>
-      <c r="G231" s="9">
-        <v>3</v>
-      </c>
-      <c r="H231" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I231" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J231" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>46</v>
-      </c>
-      <c r="B232">
-        <v>7</v>
-      </c>
-      <c r="C232" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D232" s="9" t="s">
-        <v>3037</v>
-      </c>
-      <c r="E232" s="9" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F232" s="9">
-        <v>9</v>
-      </c>
-      <c r="G232" s="9">
-        <v>2</v>
-      </c>
-      <c r="H232" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I232" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J232" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>47</v>
-      </c>
-      <c r="B233">
-        <v>7</v>
-      </c>
-      <c r="C233" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D233" s="9" t="s">
-        <v>3044</v>
-      </c>
-      <c r="E233" s="9" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F233" s="9">
-        <v>14</v>
-      </c>
-      <c r="G233" s="9">
-        <v>2</v>
-      </c>
-      <c r="H233" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I233" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J233" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>48</v>
-      </c>
-      <c r="B234">
-        <v>7</v>
-      </c>
-      <c r="C234" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D234" s="9" t="s">
-        <v>3013</v>
-      </c>
-      <c r="E234" s="9" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F234" s="9">
-        <v>9</v>
-      </c>
-      <c r="G234" s="9">
-        <v>3</v>
-      </c>
-      <c r="H234" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I234" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J234" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>49</v>
-      </c>
-      <c r="B235">
-        <v>7</v>
-      </c>
-      <c r="C235" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>3014</v>
-      </c>
-      <c r="E235" s="9" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F235" s="9">
-        <v>13</v>
-      </c>
-      <c r="G235" s="9">
-        <v>2</v>
-      </c>
-      <c r="H235" s="9" t="s">
-        <v>3053</v>
-      </c>
-      <c r="I235" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J235" s="9" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>50</v>
-      </c>
-      <c r="B236">
-        <v>7</v>
-      </c>
-      <c r="C236" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>3035</v>
-      </c>
-      <c r="E236" s="9" t="s">
-        <v>3051</v>
-      </c>
-      <c r="F236" s="9">
-        <v>18</v>
-      </c>
-      <c r="G236" s="9">
-        <v>2</v>
-      </c>
-      <c r="H236" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I236" s="9" t="s">
-        <v>3052</v>
-      </c>
-      <c r="J236" s="9" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" s="9"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" s="9"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" s="9"/>
     </row>
   </sheetData>
@@ -39436,7 +38136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>

--- a/GCMDataBase.xlsx
+++ b/GCMDataBase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="workers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="1469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="1518">
   <si>
     <t>domainName</t>
   </si>
@@ -3587,27 +3587,9 @@
     <t>Bank krwi - magazyn</t>
   </si>
   <si>
-    <t>mwojcik</t>
-  </si>
-  <si>
     <t>Wójcik</t>
   </si>
   <si>
-    <t>mwojcik@gcm.pl</t>
-  </si>
-  <si>
-    <t>akowalski</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Kowalski</t>
-  </si>
-  <si>
-    <t>akowalski@gcm.pl</t>
-  </si>
-  <si>
     <t>jszymanski</t>
   </si>
   <si>
@@ -3617,57 +3599,12 @@
     <t>jszymanski@gcm.pl</t>
   </si>
   <si>
-    <t>pzielinski</t>
-  </si>
-  <si>
     <t>Zieliński</t>
   </si>
   <si>
-    <t>pzielinski@gcm.pl</t>
-  </si>
-  <si>
-    <t>kzielinski</t>
-  </si>
-  <si>
     <t>Katarzyna</t>
   </si>
   <si>
-    <t>kzielinski@gcm.pl</t>
-  </si>
-  <si>
-    <t>akowalczyk</t>
-  </si>
-  <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>akowalczyk@gcm.pl</t>
-  </si>
-  <si>
-    <t>pwojcik</t>
-  </si>
-  <si>
-    <t>pwojcik@gcm.pl</t>
-  </si>
-  <si>
-    <t>tgrabowski</t>
-  </si>
-  <si>
-    <t>Grabowski</t>
-  </si>
-  <si>
-    <t>tgrabowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>kwisniewski</t>
-  </si>
-  <si>
-    <t>Wiśniewski</t>
-  </si>
-  <si>
-    <t>kwisniewski@gcm.pl</t>
-  </si>
-  <si>
     <t>mzajac</t>
   </si>
   <si>
@@ -3677,657 +3614,87 @@
     <t>mzajac@gcm.pl</t>
   </si>
   <si>
-    <t>łmazur</t>
-  </si>
-  <si>
     <t>Mazur</t>
   </si>
   <si>
-    <t>łmazur@gcm.pl</t>
-  </si>
-  <si>
-    <t>mnowak</t>
-  </si>
-  <si>
     <t>Nowak</t>
   </si>
   <si>
-    <t>mnowak@gcm.pl</t>
-  </si>
-  <si>
-    <t>jkowalski</t>
-  </si>
-  <si>
-    <t>jkowalski@gcm.pl</t>
-  </si>
-  <si>
-    <t>Kamil</t>
-  </si>
-  <si>
-    <t>rlewandowski</t>
-  </si>
-  <si>
     <t>Rafał</t>
   </si>
   <si>
     <t>Lewandowski</t>
   </si>
   <si>
-    <t>rlewandowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>szielinski</t>
-  </si>
-  <si>
-    <t>szielinski@gcm.pl</t>
-  </si>
-  <si>
-    <t>dpiotrowski</t>
-  </si>
-  <si>
     <t>Damian</t>
   </si>
   <si>
-    <t>Piotrowski</t>
-  </si>
-  <si>
-    <t>dpiotrowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>ppawłowski</t>
-  </si>
-  <si>
     <t>Patryk</t>
   </si>
   <si>
     <t>Pawłowski</t>
   </si>
   <si>
-    <t>ppawłowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>gkowalski</t>
-  </si>
-  <si>
-    <t>gkowalski@gcm.pl</t>
-  </si>
-  <si>
-    <t>wgrabowski</t>
-  </si>
-  <si>
-    <t>wgrabowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>mlewandowski</t>
-  </si>
-  <si>
     <t>Magdalena</t>
   </si>
   <si>
-    <t>mlewandowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>kgrabowski</t>
-  </si>
-  <si>
     <t>Karolina</t>
   </si>
   <si>
-    <t>kgrabowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>zmazur</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>zmazur@gcm.pl</t>
-  </si>
-  <si>
-    <t>azielinski</t>
-  </si>
-  <si>
-    <t>Alicja</t>
-  </si>
-  <si>
-    <t>azielinski@gcm.pl</t>
-  </si>
-  <si>
-    <t>wkwiatkowski</t>
-  </si>
-  <si>
     <t>Weronika</t>
   </si>
   <si>
-    <t>Kwiatkowski</t>
-  </si>
-  <si>
-    <t>wkwiatkowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>nzajac</t>
-  </si>
-  <si>
     <t>Natalia</t>
   </si>
   <si>
-    <t>nzajac@gcm.pl</t>
-  </si>
-  <si>
     <t>mszymanski</t>
   </si>
   <si>
-    <t>Małgorzata</t>
-  </si>
-  <si>
     <t>mszymanski@gcm.pl</t>
   </si>
   <si>
-    <t>ekowalski</t>
-  </si>
-  <si>
-    <t>ekowalski@gcm.pl</t>
-  </si>
-  <si>
-    <t>bkaminski</t>
-  </si>
-  <si>
     <t>Barbara</t>
   </si>
   <si>
-    <t>Kamiński</t>
-  </si>
-  <si>
-    <t>bkaminski@gcm.pl</t>
-  </si>
-  <si>
-    <t>jmazur</t>
-  </si>
-  <si>
     <t>Joanna</t>
   </si>
   <si>
-    <t>jmazur@gcm.pl</t>
-  </si>
-  <si>
-    <t>jdabrowski</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
-    <t>jdabrowski@gcm.pl</t>
-  </si>
-  <si>
     <t>Jarosław</t>
   </si>
   <si>
-    <t>dkowalczyk</t>
-  </si>
-  <si>
-    <t>dkowalczyk@gcm.pl</t>
-  </si>
-  <si>
-    <t>alewandowski</t>
-  </si>
-  <si>
-    <t>alewandowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>pdabrowski</t>
-  </si>
-  <si>
-    <t>pdabrowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>hwojcik</t>
-  </si>
-  <si>
-    <t>hwojcik@gcm.pl</t>
-  </si>
-  <si>
-    <t>mwisniewski</t>
-  </si>
-  <si>
-    <t>mwisniewski@gcm.pl</t>
-  </si>
-  <si>
-    <t>rjankowski</t>
-  </si>
-  <si>
     <t>Jankowski</t>
   </si>
   <si>
-    <t>rjankowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>mkozłowski</t>
-  </si>
-  <si>
-    <t>Maciej</t>
-  </si>
-  <si>
-    <t>Kozłowski</t>
-  </si>
-  <si>
-    <t>mkozłowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>okozłowski</t>
-  </si>
-  <si>
     <t>Oliwia</t>
   </si>
   <si>
-    <t>okozłowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>apawłowski</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>apawłowski@gcm.pl</t>
-  </si>
-  <si>
     <t>Julia</t>
   </si>
   <si>
-    <t>Martyna</t>
-  </si>
-  <si>
-    <t>dkwiatkowski</t>
-  </si>
-  <si>
-    <t>Dominika</t>
-  </si>
-  <si>
-    <t>dkwiatkowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>igrabowski</t>
-  </si>
-  <si>
-    <t>Iga</t>
-  </si>
-  <si>
-    <t>igrabowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>Helena</t>
-  </si>
-  <si>
-    <t>ojankowski</t>
-  </si>
-  <si>
-    <t>ojankowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>fwisniewski</t>
-  </si>
-  <si>
-    <t>fwisniewski@gcm.pl</t>
-  </si>
-  <si>
-    <t>fgrabowski</t>
-  </si>
-  <si>
-    <t>fgrabowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>swozniak</t>
-  </si>
-  <si>
-    <t>Woźniak</t>
-  </si>
-  <si>
-    <t>swozniak@gcm.pl</t>
-  </si>
-  <si>
-    <t>kkozłowski</t>
-  </si>
-  <si>
-    <t>Konrad</t>
-  </si>
-  <si>
-    <t>kkozłowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>awisniewski</t>
-  </si>
-  <si>
-    <t>awisniewski@gcm.pl</t>
-  </si>
-  <si>
-    <t>anowak</t>
-  </si>
-  <si>
-    <t>anowak@gcm.pl</t>
-  </si>
-  <si>
-    <t>ezielinski</t>
-  </si>
-  <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>ezielinski@gcm.pl</t>
-  </si>
-  <si>
-    <t>lwozniak</t>
-  </si>
-  <si>
-    <t>Leszek</t>
-  </si>
-  <si>
-    <t>lwozniak@gcm.pl</t>
-  </si>
-  <si>
-    <t>swisniewski</t>
-  </si>
-  <si>
-    <t>swisniewski@gcm.pl</t>
-  </si>
-  <si>
-    <t>hzielinski</t>
-  </si>
-  <si>
-    <t>Henryk</t>
-  </si>
-  <si>
-    <t>hzielinski@gcm.pl</t>
-  </si>
-  <si>
-    <t>cwojcik</t>
-  </si>
-  <si>
-    <t>Czesław</t>
-  </si>
-  <si>
-    <t>cwojcik@gcm.pl</t>
-  </si>
-  <si>
-    <t>mjankowski</t>
-  </si>
-  <si>
-    <t>Michaela</t>
-  </si>
-  <si>
-    <t>mjankowski@gcm.pl</t>
-  </si>
-  <si>
     <t>Monika</t>
   </si>
   <si>
-    <t>skwiatkowski</t>
-  </si>
-  <si>
-    <t>Sylwia</t>
-  </si>
-  <si>
-    <t>skwiatkowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>ikozłowski</t>
-  </si>
-  <si>
-    <t>Izabela</t>
-  </si>
-  <si>
-    <t>ikozłowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>rkaminski</t>
-  </si>
-  <si>
-    <t>Renata</t>
-  </si>
-  <si>
-    <t>rkaminski@gcm.pl</t>
-  </si>
-  <si>
-    <t>akozłowski</t>
-  </si>
-  <si>
     <t>Aneta</t>
   </si>
   <si>
-    <t>akozłowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>bkozłowski</t>
-  </si>
-  <si>
     <t>Beata</t>
   </si>
   <si>
-    <t>bkozłowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>dlewandowski</t>
-  </si>
-  <si>
-    <t>dlewandowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>gszymanski</t>
-  </si>
-  <si>
-    <t>Grażyna</t>
-  </si>
-  <si>
-    <t>gszymanski@gcm.pl</t>
-  </si>
-  <si>
-    <t>dwisniewski</t>
-  </si>
-  <si>
-    <t>Danuta</t>
-  </si>
-  <si>
-    <t>dwisniewski@gcm.pl</t>
-  </si>
-  <si>
-    <t>kpawłowski</t>
-  </si>
-  <si>
-    <t>kpawłowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>hkaminski</t>
-  </si>
-  <si>
-    <t>Halina</t>
-  </si>
-  <si>
-    <t>hkaminski@gcm.pl</t>
-  </si>
-  <si>
-    <t>Teresa</t>
-  </si>
-  <si>
-    <t>uzielinski</t>
-  </si>
-  <si>
-    <t>uzielinski@gcm.pl</t>
-  </si>
-  <si>
-    <t>ikaminski</t>
-  </si>
-  <si>
     <t>Ilona</t>
   </si>
   <si>
-    <t>ikaminski@gcm.pl</t>
-  </si>
-  <si>
-    <t>jkwiatkowski</t>
-  </si>
-  <si>
-    <t>jkwiatkowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>wszymanski</t>
-  </si>
-  <si>
-    <t>Wioletta</t>
-  </si>
-  <si>
-    <t>wszymanski@gcm.pl</t>
-  </si>
-  <si>
-    <t>agrabowski</t>
-  </si>
-  <si>
     <t>Aleksandra</t>
   </si>
   <si>
-    <t>agrabowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>Elżbieta</t>
-  </si>
-  <si>
-    <t>Patrycja</t>
-  </si>
-  <si>
-    <t>lnowak</t>
-  </si>
-  <si>
-    <t>lnowak@gcm.pl</t>
-  </si>
-  <si>
-    <t>gzielinski</t>
-  </si>
-  <si>
-    <t>Genowefa</t>
-  </si>
-  <si>
-    <t>gzielinski@gcm.pl</t>
-  </si>
-  <si>
-    <t>bnowak</t>
-  </si>
-  <si>
-    <t>Bożena</t>
-  </si>
-  <si>
-    <t>bnowak@gcm.pl</t>
-  </si>
-  <si>
-    <t>idabrowski</t>
-  </si>
-  <si>
-    <t>Iwona</t>
-  </si>
-  <si>
-    <t>idabrowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>ljankowski</t>
-  </si>
-  <si>
-    <t>Lucyna</t>
-  </si>
-  <si>
-    <t>ljankowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>Jolanta</t>
-  </si>
-  <si>
-    <t>rwisniewski</t>
-  </si>
-  <si>
-    <t>rwisniewski@gcm.pl</t>
-  </si>
-  <si>
-    <t>slewandowski</t>
-  </si>
-  <si>
-    <t>Sabina</t>
-  </si>
-  <si>
-    <t>slewandowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>bzajac</t>
-  </si>
-  <si>
-    <t>bzajac@gcm.pl</t>
-  </si>
-  <si>
-    <t>mdabrowski</t>
-  </si>
-  <si>
     <t>Milena</t>
   </si>
   <si>
-    <t>mdabrowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>Marzena</t>
-  </si>
-  <si>
-    <t>okrawczyk</t>
-  </si>
-  <si>
-    <t>Otylia</t>
-  </si>
-  <si>
-    <t>Krawczyk</t>
-  </si>
-  <si>
-    <t>okrawczyk@gcm.pl</t>
-  </si>
-  <si>
     <t>jjankowski</t>
   </si>
   <si>
-    <t>Jagoda</t>
-  </si>
-  <si>
     <t>jjankowski@gcm.pl</t>
   </si>
   <si>
-    <t>kkwiatkowski</t>
-  </si>
-  <si>
-    <t>kkwiatkowski@gcm.pl</t>
-  </si>
-  <si>
-    <t>lkowalczyk</t>
-  </si>
-  <si>
-    <t>lkowalczyk@gcm.pl</t>
-  </si>
-  <si>
-    <t>nszymanski</t>
-  </si>
-  <si>
-    <t>Nadia</t>
-  </si>
-  <si>
-    <t>nszymanski@gcm.pl</t>
-  </si>
-  <si>
-    <t>pkowalczyk</t>
-  </si>
-  <si>
-    <t>Polina</t>
-  </si>
-  <si>
-    <t>pkowalczyk@gcm.pl</t>
-  </si>
-  <si>
-    <t>bzielinski</t>
-  </si>
-  <si>
-    <t>bzielinski@gcm.pl</t>
-  </si>
-  <si>
     <t>C1.1.01</t>
   </si>
   <si>
@@ -4443,6 +3810,786 @@
   </si>
   <si>
     <t>C1.1.43</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Aleksy</t>
+  </si>
+  <si>
+    <t>Klaudia</t>
+  </si>
+  <si>
+    <t>Bogdan</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Bartłomiej</t>
+  </si>
+  <si>
+    <t>Paulina</t>
+  </si>
+  <si>
+    <t>Kornelia</t>
+  </si>
+  <si>
+    <t>Angelika</t>
+  </si>
+  <si>
+    <t>Daria</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Nikola</t>
+  </si>
+  <si>
+    <t>Kinga</t>
+  </si>
+  <si>
+    <t>Marian</t>
+  </si>
+  <si>
+    <t>Maciejewski</t>
+  </si>
+  <si>
+    <t>Przybylski</t>
+  </si>
+  <si>
+    <t>Duda</t>
+  </si>
+  <si>
+    <t>Mróz</t>
+  </si>
+  <si>
+    <t>Markowski</t>
+  </si>
+  <si>
+    <t>Król</t>
+  </si>
+  <si>
+    <t>Drozd</t>
+  </si>
+  <si>
+    <t>Pawlak</t>
+  </si>
+  <si>
+    <t>Zawisza</t>
+  </si>
+  <si>
+    <t>Brzeziński</t>
+  </si>
+  <si>
+    <t>Jaworski</t>
+  </si>
+  <si>
+    <t>Wieczorek</t>
+  </si>
+  <si>
+    <t>Sadowski</t>
+  </si>
+  <si>
+    <t>Dudek</t>
+  </si>
+  <si>
+    <t>Górski</t>
+  </si>
+  <si>
+    <t>Sroka</t>
+  </si>
+  <si>
+    <t>Szczepański</t>
+  </si>
+  <si>
+    <t>Skrzypek</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Musiał</t>
+  </si>
+  <si>
+    <t>Chmielewski</t>
+  </si>
+  <si>
+    <t>Adamczyk</t>
+  </si>
+  <si>
+    <t>Szwed</t>
+  </si>
+  <si>
+    <t>Wilk</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
+  </si>
+  <si>
+    <t>Piekarski</t>
+  </si>
+  <si>
+    <t>Tomaszewski</t>
+  </si>
+  <si>
+    <t>Szewczyk</t>
+  </si>
+  <si>
+    <t>Baran</t>
+  </si>
+  <si>
+    <t>Bernat</t>
+  </si>
+  <si>
+    <t>Szulc</t>
+  </si>
+  <si>
+    <t>Gajewski</t>
+  </si>
+  <si>
+    <t>Czerwiński</t>
+  </si>
+  <si>
+    <t>Olszewski</t>
+  </si>
+  <si>
+    <t>Zawadzki</t>
+  </si>
+  <si>
+    <t>Wasilewski</t>
+  </si>
+  <si>
+    <t>Wróbel</t>
+  </si>
+  <si>
+    <t>Domański</t>
+  </si>
+  <si>
+    <t>Sosnowski</t>
+  </si>
+  <si>
+    <t>Gil</t>
+  </si>
+  <si>
+    <t>Stępień</t>
+  </si>
+  <si>
+    <t>Borkowski</t>
+  </si>
+  <si>
+    <t>Kozak</t>
+  </si>
+  <si>
+    <t>Michalski</t>
+  </si>
+  <si>
+    <t>Czarnecki</t>
+  </si>
+  <si>
+    <t>Bąk</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
+  </si>
+  <si>
+    <t>Ratajczak</t>
+  </si>
+  <si>
+    <t>Kopeć</t>
+  </si>
+  <si>
+    <t>Ziółkowski</t>
+  </si>
+  <si>
+    <t>amaciejewski@gcm.pl</t>
+  </si>
+  <si>
+    <t>wzielinski@gcm.pl</t>
+  </si>
+  <si>
+    <t>mprzybylski@gcm.pl</t>
+  </si>
+  <si>
+    <t>oduda@gcm.pl</t>
+  </si>
+  <si>
+    <t>rwojcik@gcm.pl</t>
+  </si>
+  <si>
+    <t>amroz@gcm.pl</t>
+  </si>
+  <si>
+    <t>amarkowski@gcm.pl</t>
+  </si>
+  <si>
+    <t>dzielinski@gcm.pl</t>
+  </si>
+  <si>
+    <t>rkrol@gcm.pl</t>
+  </si>
+  <si>
+    <t>bdrozd@gcm.pl</t>
+  </si>
+  <si>
+    <t>mpawlak@gcm.pl</t>
+  </si>
+  <si>
+    <t>azawisza@gcm.pl</t>
+  </si>
+  <si>
+    <t>kbrzezinski@gcm.pl</t>
+  </si>
+  <si>
+    <t>bjaworski@gcm.pl</t>
+  </si>
+  <si>
+    <t>pmaciejewski@gcm.pl</t>
+  </si>
+  <si>
+    <t>fbrzezinski@gcm.pl</t>
+  </si>
+  <si>
+    <t>jwieczorek@gcm.pl</t>
+  </si>
+  <si>
+    <t>nwojcik@gcm.pl</t>
+  </si>
+  <si>
+    <t>bsadowski@gcm.pl</t>
+  </si>
+  <si>
+    <t>bwojcik@gcm.pl</t>
+  </si>
+  <si>
+    <t>ddudek@gcm.pl</t>
+  </si>
+  <si>
+    <t>mmazur@gcm.pl</t>
+  </si>
+  <si>
+    <t>ogorski@gcm.pl</t>
+  </si>
+  <si>
+    <t>jsroka@gcm.pl</t>
+  </si>
+  <si>
+    <t>rszczepanski@gcm.pl</t>
+  </si>
+  <si>
+    <t>mjaworski@gcm.pl</t>
+  </si>
+  <si>
+    <t>eskrzypek@gcm.pl</t>
+  </si>
+  <si>
+    <t>alis@gcm.pl</t>
+  </si>
+  <si>
+    <t>jmusial@gcm.pl</t>
+  </si>
+  <si>
+    <t>fchmielewski@gcm.pl</t>
+  </si>
+  <si>
+    <t>bmusial@gcm.pl</t>
+  </si>
+  <si>
+    <t>madamczyk@gcm.pl</t>
+  </si>
+  <si>
+    <t>bszwed@gcm.pl</t>
+  </si>
+  <si>
+    <t>rwojcik2@gcm.pl</t>
+  </si>
+  <si>
+    <t>bwilk@gcm.pl</t>
+  </si>
+  <si>
+    <t>skaczmarek@gcm.pl</t>
+  </si>
+  <si>
+    <t>opiekarski@gcm.pl</t>
+  </si>
+  <si>
+    <t>jtomaszewski@gcm.pl</t>
+  </si>
+  <si>
+    <t>bpawlowski@gcm.pl</t>
+  </si>
+  <si>
+    <t>edrozd@gcm.pl</t>
+  </si>
+  <si>
+    <t>jlewandowski@gcm.pl</t>
+  </si>
+  <si>
+    <t>nszewczyk@gcm.pl</t>
+  </si>
+  <si>
+    <t>jzielinski@gcm.pl</t>
+  </si>
+  <si>
+    <t>jbaran@gcm.pl</t>
+  </si>
+  <si>
+    <t>abernat@gcm.pl</t>
+  </si>
+  <si>
+    <t>eszulc@gcm.pl</t>
+  </si>
+  <si>
+    <t>bdrozd2@gcm.pl</t>
+  </si>
+  <si>
+    <t>pgajewski@gcm.pl</t>
+  </si>
+  <si>
+    <t>kmarkowski@gcm.pl</t>
+  </si>
+  <si>
+    <t>knowak@gcm.pl</t>
+  </si>
+  <si>
+    <t>pszczepanski@gcm.pl</t>
+  </si>
+  <si>
+    <t>achmielewski@gcm.pl</t>
+  </si>
+  <si>
+    <t>awojcik@gcm.pl</t>
+  </si>
+  <si>
+    <t>kczerwinski@gcm.pl</t>
+  </si>
+  <si>
+    <t>molszewski@gcm.pl</t>
+  </si>
+  <si>
+    <t>izawadzki@gcm.pl</t>
+  </si>
+  <si>
+    <t>jwasilewski@gcm.pl</t>
+  </si>
+  <si>
+    <t>mgorski@gcm.pl</t>
+  </si>
+  <si>
+    <t>dwrobel@gcm.pl</t>
+  </si>
+  <si>
+    <t>mdomanski@gcm.pl</t>
+  </si>
+  <si>
+    <t>ssosnowski@gcm.pl</t>
+  </si>
+  <si>
+    <t>ikaczmarek@gcm.pl</t>
+  </si>
+  <si>
+    <t>agil@gcm.pl</t>
+  </si>
+  <si>
+    <t>bszewczyk@gcm.pl</t>
+  </si>
+  <si>
+    <t>kstepien@gcm.pl</t>
+  </si>
+  <si>
+    <t>mborkowski@gcm.pl</t>
+  </si>
+  <si>
+    <t>fszewczyk@gcm.pl</t>
+  </si>
+  <si>
+    <t>wnowak@gcm.pl</t>
+  </si>
+  <si>
+    <t>mkozak@gcm.pl</t>
+  </si>
+  <si>
+    <t>rmichalski@gcm.pl</t>
+  </si>
+  <si>
+    <t>dlis@gcm.pl</t>
+  </si>
+  <si>
+    <t>dgajewski@gcm.pl</t>
+  </si>
+  <si>
+    <t>aszczepanski@gcm.pl</t>
+  </si>
+  <si>
+    <t>wlewandowski@gcm.pl</t>
+  </si>
+  <si>
+    <t>sczarnecki@gcm.pl</t>
+  </si>
+  <si>
+    <t>abak@gcm.pl</t>
+  </si>
+  <si>
+    <t>npawlak@gcm.pl</t>
+  </si>
+  <si>
+    <t>swojciechowski@gcm.pl</t>
+  </si>
+  <si>
+    <t>aratajczak@gcm.pl</t>
+  </si>
+  <si>
+    <t>mzawadzki@gcm.pl</t>
+  </si>
+  <si>
+    <t>mpiekarski@gcm.pl</t>
+  </si>
+  <si>
+    <t>kstepien2@gcm.pl</t>
+  </si>
+  <si>
+    <t>nkozak@gcm.pl</t>
+  </si>
+  <si>
+    <t>hjankowski@gcm.pl</t>
+  </si>
+  <si>
+    <t>wmusial@gcm.pl</t>
+  </si>
+  <si>
+    <t>dkrol@gcm.pl</t>
+  </si>
+  <si>
+    <t>aratajczak2@gcm.pl</t>
+  </si>
+  <si>
+    <t>ktomaszewski@gcm.pl</t>
+  </si>
+  <si>
+    <t>dkrol2@gcm.pl</t>
+  </si>
+  <si>
+    <t>okopec@gcm.pl</t>
+  </si>
+  <si>
+    <t>kszwed@gcm.pl</t>
+  </si>
+  <si>
+    <t>kchmielewski@gcm.pl</t>
+  </si>
+  <si>
+    <t>mczerwinski@gcm.pl</t>
+  </si>
+  <si>
+    <t>amazur@gcm.pl</t>
+  </si>
+  <si>
+    <t>achmielewski2@gcm.pl</t>
+  </si>
+  <si>
+    <t>fziolkowski@gcm.pl</t>
+  </si>
+  <si>
+    <t>mskrzypek@gcm.pl</t>
+  </si>
+  <si>
+    <t>amaciejewski</t>
+  </si>
+  <si>
+    <t>wzielinski</t>
+  </si>
+  <si>
+    <t>mprzybylski</t>
+  </si>
+  <si>
+    <t>oduda</t>
+  </si>
+  <si>
+    <t>rwojcik</t>
+  </si>
+  <si>
+    <t>amroz</t>
+  </si>
+  <si>
+    <t>amarkowski</t>
+  </si>
+  <si>
+    <t>dzielinski</t>
+  </si>
+  <si>
+    <t>rkrol</t>
+  </si>
+  <si>
+    <t>bdrozd</t>
+  </si>
+  <si>
+    <t>mpawlak</t>
+  </si>
+  <si>
+    <t>azawisza</t>
+  </si>
+  <si>
+    <t>kbrzezinski</t>
+  </si>
+  <si>
+    <t>bjaworski</t>
+  </si>
+  <si>
+    <t>pmaciejewski</t>
+  </si>
+  <si>
+    <t>fbrzezinski</t>
+  </si>
+  <si>
+    <t>jwieczorek</t>
+  </si>
+  <si>
+    <t>nwojcik</t>
+  </si>
+  <si>
+    <t>bsadowski</t>
+  </si>
+  <si>
+    <t>bwojcik</t>
+  </si>
+  <si>
+    <t>ddudek</t>
+  </si>
+  <si>
+    <t>mmazur</t>
+  </si>
+  <si>
+    <t>ogorski</t>
+  </si>
+  <si>
+    <t>jsroka</t>
+  </si>
+  <si>
+    <t>rszczepanski</t>
+  </si>
+  <si>
+    <t>mjaworski</t>
+  </si>
+  <si>
+    <t>eskrzypek</t>
+  </si>
+  <si>
+    <t>alis</t>
+  </si>
+  <si>
+    <t>jmusial</t>
+  </si>
+  <si>
+    <t>fchmielewski</t>
+  </si>
+  <si>
+    <t>bmusial</t>
+  </si>
+  <si>
+    <t>madamczyk</t>
+  </si>
+  <si>
+    <t>bszwed</t>
+  </si>
+  <si>
+    <t>rwojcik2</t>
+  </si>
+  <si>
+    <t>bwilk</t>
+  </si>
+  <si>
+    <t>skaczmarek</t>
+  </si>
+  <si>
+    <t>opiekarski</t>
+  </si>
+  <si>
+    <t>jtomaszewski</t>
+  </si>
+  <si>
+    <t>bpawlowski</t>
+  </si>
+  <si>
+    <t>edrozd</t>
+  </si>
+  <si>
+    <t>jlewandowski</t>
+  </si>
+  <si>
+    <t>nszewczyk</t>
+  </si>
+  <si>
+    <t>jzielinski</t>
+  </si>
+  <si>
+    <t>jbaran</t>
+  </si>
+  <si>
+    <t>abernat</t>
+  </si>
+  <si>
+    <t>eszulc</t>
+  </si>
+  <si>
+    <t>bdrozd2</t>
+  </si>
+  <si>
+    <t>pgajewski</t>
+  </si>
+  <si>
+    <t>kmarkowski</t>
+  </si>
+  <si>
+    <t>knowak</t>
+  </si>
+  <si>
+    <t>pszczepanski</t>
+  </si>
+  <si>
+    <t>achmielewski</t>
+  </si>
+  <si>
+    <t>awojcik</t>
+  </si>
+  <si>
+    <t>kczerwinski</t>
+  </si>
+  <si>
+    <t>molszewski</t>
+  </si>
+  <si>
+    <t>izawadzki</t>
+  </si>
+  <si>
+    <t>jwasilewski</t>
+  </si>
+  <si>
+    <t>mgorski</t>
+  </si>
+  <si>
+    <t>dwrobel</t>
+  </si>
+  <si>
+    <t>mdomanski</t>
+  </si>
+  <si>
+    <t>ssosnowski</t>
+  </si>
+  <si>
+    <t>ikaczmarek</t>
+  </si>
+  <si>
+    <t>agil</t>
+  </si>
+  <si>
+    <t>bszewczyk</t>
+  </si>
+  <si>
+    <t>kstepien</t>
+  </si>
+  <si>
+    <t>mborkowski</t>
+  </si>
+  <si>
+    <t>fszewczyk</t>
+  </si>
+  <si>
+    <t>wnowak</t>
+  </si>
+  <si>
+    <t>mkozak</t>
+  </si>
+  <si>
+    <t>rmichalski</t>
+  </si>
+  <si>
+    <t>dlis</t>
+  </si>
+  <si>
+    <t>dgajewski</t>
+  </si>
+  <si>
+    <t>aszczepanski</t>
+  </si>
+  <si>
+    <t>wlewandowski</t>
+  </si>
+  <si>
+    <t>sczarnecki</t>
+  </si>
+  <si>
+    <t>abak</t>
+  </si>
+  <si>
+    <t>npawlak</t>
+  </si>
+  <si>
+    <t>swojciechowski</t>
+  </si>
+  <si>
+    <t>aratajczak</t>
+  </si>
+  <si>
+    <t>mzawadzki</t>
+  </si>
+  <si>
+    <t>mpiekarski</t>
+  </si>
+  <si>
+    <t>kstepien2</t>
+  </si>
+  <si>
+    <t>nkozak</t>
+  </si>
+  <si>
+    <t>hjankowski</t>
+  </si>
+  <si>
+    <t>wmusial</t>
+  </si>
+  <si>
+    <t>dkrol</t>
+  </si>
+  <si>
+    <t>aratajczak2</t>
+  </si>
+  <si>
+    <t>ktomaszewski</t>
+  </si>
+  <si>
+    <t>dkrol2</t>
+  </si>
+  <si>
+    <t>okopec</t>
+  </si>
+  <si>
+    <t>kszwed</t>
+  </si>
+  <si>
+    <t>kchmielewski</t>
+  </si>
+  <si>
+    <t>mczerwinski</t>
+  </si>
+  <si>
+    <t>amazur</t>
+  </si>
+  <si>
+    <t>achmielewski2</t>
+  </si>
+  <si>
+    <t>fziolkowski</t>
+  </si>
+  <si>
+    <t>mskrzypek</t>
   </si>
 </sst>
 </file>
@@ -4547,7 +4694,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4583,6 +4730,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -4869,8 +5020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E322" sqref="E322"/>
+    <sheetView topLeftCell="A282" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E335" sqref="E335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10111,23 +10262,23 @@
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" s="25" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B226" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="C226" s="25" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D226" s="25" t="s">
-        <v>1185</v>
+      <c r="A226" s="30" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B226" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C226" s="28" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D226" s="29" t="s">
+        <v>1324</v>
       </c>
       <c r="E226" s="12" t="s">
         <v>1167</v>
       </c>
       <c r="F226" s="12" t="s">
-        <v>1430</v>
+        <v>1219</v>
       </c>
       <c r="G226" s="26">
         <v>2852</v>
@@ -10135,23 +10286,23 @@
       <c r="J226" s="4"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A227" s="25" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B227" s="25" t="s">
+      <c r="A227" s="30" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B227" s="27" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C227" s="28" t="s">
         <v>1187</v>
       </c>
-      <c r="C227" s="25" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D227" s="25" t="s">
-        <v>1189</v>
+      <c r="D227" s="29" t="s">
+        <v>1325</v>
       </c>
       <c r="E227" s="12" t="s">
         <v>1167</v>
       </c>
       <c r="F227" s="25" t="s">
-        <v>1430</v>
+        <v>1219</v>
       </c>
       <c r="G227" s="26">
         <v>9211</v>
@@ -10159,23 +10310,23 @@
       <c r="J227" s="4"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228" s="25" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B228" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="C228" s="25" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D228" s="25" t="s">
-        <v>1192</v>
+      <c r="A228" s="30" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B228" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C228" s="28" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D228" s="29" t="s">
+        <v>1326</v>
       </c>
       <c r="E228" s="25" t="s">
         <v>1167</v>
       </c>
       <c r="F228" s="25" t="s">
-        <v>1430</v>
+        <v>1219</v>
       </c>
       <c r="G228" s="26">
         <v>3660</v>
@@ -10183,23 +10334,23 @@
       <c r="J228" s="4"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" s="25" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B229" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="C229" s="25" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D229" s="25" t="s">
-        <v>1195</v>
+      <c r="A229" s="30" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B229" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" s="28" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D229" s="29" t="s">
+        <v>1327</v>
       </c>
       <c r="E229" s="25" t="s">
         <v>1167</v>
       </c>
       <c r="F229" s="25" t="s">
-        <v>1431</v>
+        <v>1220</v>
       </c>
       <c r="G229" s="26">
         <v>4277</v>
@@ -10207,23 +10358,23 @@
       <c r="J229" s="4"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" s="25" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B230" s="25" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C230" s="25" t="s">
+      <c r="A230" s="30" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B230" s="27" t="s">
         <v>1194</v>
       </c>
-      <c r="D230" s="25" t="s">
-        <v>1198</v>
+      <c r="C230" s="28" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D230" s="29" t="s">
+        <v>1328</v>
       </c>
       <c r="E230" s="25" t="s">
         <v>1167</v>
       </c>
       <c r="F230" s="25" t="s">
-        <v>1431</v>
+        <v>1220</v>
       </c>
       <c r="G230" s="26">
         <v>8931</v>
@@ -10231,23 +10382,23 @@
       <c r="J230" s="4"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A231" s="25" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B231" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="C231" s="25" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D231" s="25" t="s">
-        <v>1201</v>
+      <c r="A231" s="30" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B231" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="C231" s="28" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D231" s="29" t="s">
+        <v>1329</v>
       </c>
       <c r="E231" s="25" t="s">
         <v>1167</v>
       </c>
       <c r="F231" s="25" t="s">
-        <v>1432</v>
+        <v>1221</v>
       </c>
       <c r="G231" s="26">
         <v>5320</v>
@@ -10255,23 +10406,23 @@
       <c r="J231" s="4"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232" s="25" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B232" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C232" s="25" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D232" s="25" t="s">
-        <v>1203</v>
+      <c r="A232" s="30" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B232" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="C232" s="28" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D232" s="29" t="s">
+        <v>1330</v>
       </c>
       <c r="E232" s="25" t="s">
         <v>1167</v>
       </c>
       <c r="F232" s="25" t="s">
-        <v>1432</v>
+        <v>1221</v>
       </c>
       <c r="G232" s="26">
         <v>8537</v>
@@ -10280,23 +10431,23 @@
       <c r="J232" s="4"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" s="25" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B233" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="C233" s="25" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D233" s="25" t="s">
-        <v>1206</v>
+      <c r="A233" s="30" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B233" s="27" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C233" s="28" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D233" s="29" t="s">
+        <v>1331</v>
       </c>
       <c r="E233" s="25" t="s">
         <v>1167</v>
       </c>
       <c r="F233" s="12" t="s">
-        <v>1432</v>
+        <v>1221</v>
       </c>
       <c r="G233" s="26">
         <v>3701</v>
@@ -10305,23 +10456,23 @@
       <c r="J233" s="4"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" s="25" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B234" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="C234" s="25" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D234" s="25" t="s">
-        <v>1209</v>
+      <c r="A234" s="30" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B234" s="27" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C234" s="28" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D234" s="29" t="s">
+        <v>1332</v>
       </c>
       <c r="E234" s="25" t="s">
         <v>1167</v>
       </c>
       <c r="F234" s="25" t="s">
-        <v>1433</v>
+        <v>1222</v>
       </c>
       <c r="G234" s="26">
         <v>9089</v>
@@ -10330,23 +10481,23 @@
       <c r="J234" s="4"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="25" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B235" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C235" s="25" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D235" s="25" t="s">
-        <v>1212</v>
+      <c r="A235" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B235" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235" s="28" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D235" s="29" t="s">
+        <v>1333</v>
       </c>
       <c r="E235" s="12" t="s">
         <v>810</v>
       </c>
       <c r="F235" s="25" t="s">
-        <v>1434</v>
+        <v>1223</v>
       </c>
       <c r="G235" s="26">
         <v>9904</v>
@@ -10355,23 +10506,23 @@
       <c r="J235" s="4"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A236" s="25" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B236" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C236" s="25" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D236" s="25" t="s">
-        <v>1215</v>
+      <c r="A236" s="30" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B236" s="27" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C236" s="28" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D236" s="29" t="s">
+        <v>1191</v>
       </c>
       <c r="E236" s="12" t="s">
         <v>810</v>
       </c>
       <c r="F236" s="12" t="s">
-        <v>1434</v>
+        <v>1223</v>
       </c>
       <c r="G236" s="26">
         <v>8118</v>
@@ -10380,23 +10531,23 @@
       <c r="J236" s="4"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A237" s="25" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B237" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="C237" s="25" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D237" s="25" t="s">
-        <v>1218</v>
+      <c r="A237" s="30" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B237" s="27" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C237" s="28" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D237" s="29" t="s">
+        <v>1334</v>
       </c>
       <c r="E237" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F237" s="12" t="s">
-        <v>1434</v>
+        <v>1223</v>
       </c>
       <c r="G237" s="26">
         <v>1447</v>
@@ -10405,23 +10556,23 @@
       <c r="J237" s="4"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" s="25" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B238" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C238" s="25" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D238" s="25" t="s">
-        <v>1220</v>
+      <c r="A238" s="30" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B238" s="27" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C238" s="28" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D238" s="29" t="s">
+        <v>1335</v>
       </c>
       <c r="E238" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F238" s="25" t="s">
-        <v>1435</v>
+        <v>1224</v>
       </c>
       <c r="G238" s="26">
         <v>7235</v>
@@ -10430,23 +10581,23 @@
       <c r="J238" s="4"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" s="25" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B239" s="25" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C239" s="25" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D239" s="25" t="s">
-        <v>1209</v>
+      <c r="A239" s="30" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B239" s="27" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C239" s="28" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D239" s="29" t="s">
+        <v>1336</v>
       </c>
       <c r="E239" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F239" s="12" t="s">
-        <v>1435</v>
+        <v>1224</v>
       </c>
       <c r="G239" s="26">
         <v>3677</v>
@@ -10455,23 +10606,23 @@
       <c r="J239" s="4"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A240" s="25" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B240" s="25" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C240" s="25" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D240" s="25" t="s">
-        <v>1225</v>
+      <c r="A240" s="30" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B240" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C240" s="28" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D240" s="29" t="s">
+        <v>1337</v>
       </c>
       <c r="E240" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F240" s="12" t="s">
-        <v>1435</v>
+        <v>1224</v>
       </c>
       <c r="G240" s="26">
         <v>3888</v>
@@ -10480,23 +10631,23 @@
       <c r="J240" s="4"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A241" s="25" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B241" s="25" t="s">
-        <v>625</v>
-      </c>
-      <c r="C241" s="25" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D241" s="25" t="s">
-        <v>1227</v>
+      <c r="A241" s="30" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B241" s="27" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C241" s="28" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D241" s="29" t="s">
+        <v>1338</v>
       </c>
       <c r="E241" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F241" s="25" t="s">
-        <v>1435</v>
+        <v>1224</v>
       </c>
       <c r="G241" s="26">
         <v>6041</v>
@@ -10505,23 +10656,23 @@
       <c r="J241" s="4"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A242" s="25" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B242" s="25" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C242" s="25" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D242" s="25" t="s">
-        <v>1231</v>
+      <c r="A242" s="30" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B242" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="C242" s="28" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D242" s="29" t="s">
+        <v>1339</v>
       </c>
       <c r="E242" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F242" s="25" t="s">
-        <v>1436</v>
+        <v>1225</v>
       </c>
       <c r="G242" s="26">
         <v>3127</v>
@@ -10530,23 +10681,23 @@
       <c r="J242" s="4"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A243" s="25" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B243" s="25" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C243" s="25" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D243" s="25" t="s">
-        <v>1235</v>
+      <c r="A243" s="30" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B243" s="27" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C243" s="28" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D243" s="29" t="s">
+        <v>1340</v>
       </c>
       <c r="E243" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F243" s="25" t="s">
-        <v>1436</v>
+        <v>1225</v>
       </c>
       <c r="G243" s="26">
         <v>8344</v>
@@ -10555,23 +10706,23 @@
       <c r="J243" s="4"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="25" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B244" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="C244" s="25" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D244" s="25" t="s">
-        <v>1237</v>
+      <c r="A244" s="30" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B244" s="27" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C244" s="28" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D244" s="29" t="s">
+        <v>1341</v>
       </c>
       <c r="E244" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F244" s="12" t="s">
-        <v>1436</v>
+        <v>1225</v>
       </c>
       <c r="G244" s="26">
         <v>5583</v>
@@ -10580,23 +10731,23 @@
       <c r="J244" s="4"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A245" s="25" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B245" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="C245" s="25" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D245" s="25" t="s">
-        <v>1239</v>
+      <c r="A245" s="30" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B245" s="27" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C245" s="28" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D245" s="29" t="s">
+        <v>1342</v>
       </c>
       <c r="E245" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F245" s="12" t="s">
-        <v>1436</v>
+        <v>1225</v>
       </c>
       <c r="G245" s="26">
         <v>4695</v>
@@ -10605,23 +10756,23 @@
       <c r="J245" s="4"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A246" s="25" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B246" s="25" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C246" s="25" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D246" s="25" t="s">
-        <v>1242</v>
+      <c r="A246" s="30" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B246" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C246" s="28" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D246" s="29" t="s">
+        <v>1343</v>
       </c>
       <c r="E246" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F246" s="25" t="s">
-        <v>1437</v>
+        <v>1226</v>
       </c>
       <c r="G246" s="26">
         <v>2197</v>
@@ -10630,23 +10781,23 @@
       <c r="J246" s="4"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A247" s="25" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B247" s="25" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C247" s="25" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D247" s="25" t="s">
-        <v>1245</v>
+      <c r="A247" s="30" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B247" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C247" s="28" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D247" s="29" t="s">
+        <v>1344</v>
       </c>
       <c r="E247" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F247" s="12" t="s">
-        <v>1437</v>
+        <v>1226</v>
       </c>
       <c r="G247" s="26">
         <v>6516</v>
@@ -10655,23 +10806,23 @@
       <c r="J247" s="4"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="25" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B248" s="25" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C248" s="25" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D248" s="25" t="s">
-        <v>1248</v>
+      <c r="A248" s="30" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B248" s="27" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C248" s="28" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D248" s="29" t="s">
+        <v>1345</v>
       </c>
       <c r="E248" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F248" s="12" t="s">
-        <v>1437</v>
+        <v>1226</v>
       </c>
       <c r="G248" s="26">
         <v>6554</v>
@@ -10680,23 +10831,23 @@
       <c r="J248" s="4"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" s="25" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B249" s="25" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C249" s="25" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D249" s="25" t="s">
-        <v>1251</v>
+      <c r="A249" s="30" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B249" s="27" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C249" s="28" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D249" s="29" t="s">
+        <v>1346</v>
       </c>
       <c r="E249" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F249" s="25" t="s">
-        <v>1438</v>
+        <v>1227</v>
       </c>
       <c r="G249" s="26">
         <v>9139</v>
@@ -10705,23 +10856,23 @@
       <c r="J249" s="4"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" s="25" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B250" s="25" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C250" s="25" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D250" s="25" t="s">
-        <v>1255</v>
+      <c r="A250" s="30" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B250" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C250" s="28" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D250" s="29" t="s">
+        <v>1347</v>
       </c>
       <c r="E250" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F250" s="12" t="s">
-        <v>1438</v>
+        <v>1227</v>
       </c>
       <c r="G250" s="26">
         <v>7082</v>
@@ -10729,23 +10880,23 @@
       <c r="J250" s="4"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A251" s="25" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B251" s="25" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C251" s="25" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D251" s="25" t="s">
-        <v>1258</v>
+      <c r="A251" s="30" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B251" s="27" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C251" s="28" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D251" s="29" t="s">
+        <v>1348</v>
       </c>
       <c r="E251" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F251" s="12" t="s">
-        <v>1438</v>
+        <v>1227</v>
       </c>
       <c r="G251" s="26">
         <v>9163</v>
@@ -10753,23 +10904,23 @@
       <c r="J251" s="4"/>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" s="25" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B252" s="25" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C252" s="25" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D252" s="25" t="s">
-        <v>1261</v>
+      <c r="A252" s="30" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B252" s="27" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C252" s="28" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D252" s="29" t="s">
+        <v>1349</v>
       </c>
       <c r="E252" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F252" s="25" t="s">
-        <v>1439</v>
+        <v>1228</v>
       </c>
       <c r="G252" s="26">
         <v>3067</v>
@@ -10777,23 +10928,23 @@
       <c r="J252" s="4"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="25" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B253" s="25" t="s">
-        <v>555</v>
-      </c>
-      <c r="C253" s="25" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D253" s="25" t="s">
+      <c r="A253" s="30" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B253" s="27" t="s">
         <v>1263</v>
+      </c>
+      <c r="C253" s="28" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D253" s="29" t="s">
+        <v>1350</v>
       </c>
       <c r="E253" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>1439</v>
+        <v>1228</v>
       </c>
       <c r="G253" s="26">
         <v>3615</v>
@@ -10801,23 +10952,23 @@
       <c r="J253" s="4"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A254" s="25" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B254" s="25" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C254" s="25" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D254" s="25" t="s">
-        <v>1267</v>
+      <c r="A254" s="30" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B254" s="27" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C254" s="28" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D254" s="29" t="s">
+        <v>1351</v>
       </c>
       <c r="E254" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F254" s="12" t="s">
-        <v>1439</v>
+        <v>1228</v>
       </c>
       <c r="G254" s="26">
         <v>7420</v>
@@ -10825,23 +10976,23 @@
       <c r="J254" s="4"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A255" s="25" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B255" s="25" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C255" s="25" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D255" s="25" t="s">
-        <v>1270</v>
+      <c r="A255" s="30" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B255" s="27" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C255" s="28" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D255" s="29" t="s">
+        <v>1352</v>
       </c>
       <c r="E255" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F255" s="25" t="s">
-        <v>1440</v>
+        <v>1229</v>
       </c>
       <c r="G255" s="26">
         <v>1982</v>
@@ -10849,23 +11000,23 @@
       <c r="J255" s="4"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A256" s="25" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B256" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="C256" s="25" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D256" s="25" t="s">
-        <v>1273</v>
+      <c r="A256" s="30" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B256" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="C256" s="28" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D256" s="29" t="s">
+        <v>1353</v>
       </c>
       <c r="E256" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>1440</v>
+        <v>1229</v>
       </c>
       <c r="G256" s="26">
         <v>7532</v>
@@ -10873,23 +11024,23 @@
       <c r="J256" s="25"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257" s="25" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B257" s="25" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C257" s="25" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D257" s="25" t="s">
-        <v>1192</v>
+      <c r="A257" s="30" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B257" s="27" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C257" s="28" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D257" s="29" t="s">
+        <v>1354</v>
       </c>
       <c r="E257" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F257" s="12" t="s">
-        <v>1440</v>
+        <v>1229</v>
       </c>
       <c r="G257" s="26">
         <v>3253</v>
@@ -10897,23 +11048,23 @@
       <c r="J257" s="25"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A258" s="25" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B258" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C258" s="25" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D258" s="25" t="s">
-        <v>1276</v>
+      <c r="A258" s="30" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B258" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="C258" s="28" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D258" s="29" t="s">
+        <v>1355</v>
       </c>
       <c r="E258" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F258" s="25" t="s">
-        <v>1441</v>
+        <v>1230</v>
       </c>
       <c r="G258" s="26">
         <v>4741</v>
@@ -10921,23 +11072,23 @@
       <c r="J258" s="25"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A259" s="25" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B259" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C259" s="25" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D259" s="25" t="s">
-        <v>1278</v>
+      <c r="A259" s="30" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B259" s="27" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C259" s="28" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D259" s="29" t="s">
+        <v>1356</v>
       </c>
       <c r="E259" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F259" s="12" t="s">
-        <v>1441</v>
+        <v>1230</v>
       </c>
       <c r="G259" s="26">
         <v>7583</v>
@@ -10945,23 +11096,23 @@
       <c r="J259" s="25"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A260" s="25" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B260" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C260" s="25" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D260" s="25" t="s">
-        <v>1280</v>
+      <c r="A260" s="30" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B260" s="27" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C260" s="28" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D260" s="29" t="s">
+        <v>1357</v>
       </c>
       <c r="E260" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F260" s="12" t="s">
-        <v>1441</v>
+        <v>1230</v>
       </c>
       <c r="G260" s="26">
         <v>1955</v>
@@ -10969,23 +11120,23 @@
       <c r="J260" s="25"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A261" s="25" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B261" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C261" s="25" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D261" s="25" t="s">
-        <v>1282</v>
+      <c r="A261" s="30" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B261" s="27" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C261" s="28" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D261" s="29" t="s">
+        <v>1358</v>
       </c>
       <c r="E261" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F261" s="25" t="s">
-        <v>1442</v>
+        <v>1231</v>
       </c>
       <c r="G261" s="26">
         <v>2780</v>
@@ -10993,23 +11144,23 @@
       <c r="J261" s="25"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="25" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B262" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C262" s="25" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D262" s="25" t="s">
-        <v>1284</v>
+      <c r="A262" s="30" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B262" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="C262" s="28" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D262" s="29" t="s">
+        <v>1359</v>
       </c>
       <c r="E262" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F262" s="12" t="s">
-        <v>1442</v>
+        <v>1231</v>
       </c>
       <c r="G262" s="26">
         <v>5687</v>
@@ -11017,23 +11168,23 @@
       <c r="J262" s="25"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A263" s="25" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B263" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="C263" s="25" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D263" s="25" t="s">
-        <v>1287</v>
+      <c r="A263" s="30" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B263" s="27" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C263" s="28" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D263" s="29" t="s">
+        <v>1360</v>
       </c>
       <c r="E263" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F263" s="12" t="s">
-        <v>1442</v>
+        <v>1231</v>
       </c>
       <c r="G263" s="26">
         <v>3581</v>
@@ -11041,23 +11192,23 @@
       <c r="J263" s="25"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A264" s="25" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B264" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="C264" s="25" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D264" s="25" t="s">
-        <v>1185</v>
+      <c r="A264" s="30" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B264" s="27" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C264" s="28" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D264" s="29" t="s">
+        <v>1361</v>
       </c>
       <c r="E264" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F264" s="25" t="s">
-        <v>1443</v>
+        <v>1232</v>
       </c>
       <c r="G264" s="26">
         <v>7634</v>
@@ -11065,23 +11216,23 @@
       <c r="J264" s="25"/>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A265" s="25" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B265" s="25" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C265" s="25" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D265" s="25" t="s">
-        <v>1291</v>
+      <c r="A265" s="30" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B265" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C265" s="28" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D265" s="29" t="s">
+        <v>1186</v>
       </c>
       <c r="E265" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F265" s="12" t="s">
-        <v>1443</v>
+        <v>1232</v>
       </c>
       <c r="G265" s="26">
         <v>9626</v>
@@ -11089,23 +11240,23 @@
       <c r="J265" s="25"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="25" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B266" s="25" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C266" s="25" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D266" s="25" t="s">
-        <v>1294</v>
+      <c r="A266" s="30" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B266" s="27" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C266" s="28" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D266" s="29" t="s">
+        <v>1362</v>
       </c>
       <c r="E266" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F266" s="12" t="s">
-        <v>1443</v>
+        <v>1232</v>
       </c>
       <c r="G266" s="26">
         <v>3155</v>
@@ -11113,23 +11264,23 @@
       <c r="J266" s="25"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A267" s="25" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B267" s="25" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C267" s="25" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D267" s="25" t="s">
-        <v>1297</v>
+      <c r="A267" s="30" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B267" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C267" s="28" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D267" s="29" t="s">
+        <v>1363</v>
       </c>
       <c r="E267" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F267" s="25" t="s">
-        <v>1444</v>
+        <v>1233</v>
       </c>
       <c r="G267" s="26">
         <v>6794</v>
@@ -11137,23 +11288,23 @@
       <c r="J267" s="25"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A268" s="25" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B268" s="25" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C268" s="25" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D268" s="25" t="s">
-        <v>1192</v>
+      <c r="A268" s="30" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B268" s="27" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C268" s="28" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D268" s="29" t="s">
+        <v>1364</v>
       </c>
       <c r="E268" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F268" s="12" t="s">
-        <v>1444</v>
+        <v>1233</v>
       </c>
       <c r="G268" s="26">
         <v>5614</v>
@@ -11161,23 +11312,23 @@
       <c r="J268" s="25"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" s="25" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B269" s="25" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C269" s="25" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D269" s="25" t="s">
-        <v>1218</v>
+      <c r="A269" s="30" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B269" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C269" s="28" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D269" s="29" t="s">
+        <v>1365</v>
       </c>
       <c r="E269" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F269" s="12" t="s">
-        <v>1444</v>
+        <v>1233</v>
       </c>
       <c r="G269" s="26">
         <v>5130</v>
@@ -11185,23 +11336,23 @@
       <c r="J269" s="25"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A270" s="25" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B270" s="25" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C270" s="25" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D270" s="25" t="s">
-        <v>1302</v>
+      <c r="A270" s="30" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B270" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C270" s="28" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D270" s="29" t="s">
+        <v>1366</v>
       </c>
       <c r="E270" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F270" s="25" t="s">
-        <v>1445</v>
+        <v>1234</v>
       </c>
       <c r="G270" s="26">
         <v>5499</v>
@@ -11209,23 +11360,23 @@
       <c r="J270" s="25"/>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A271" s="25" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B271" s="25" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C271" s="25" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D271" s="25" t="s">
-        <v>1305</v>
+      <c r="A271" s="30" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B271" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C271" s="28" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D271" s="29" t="s">
+        <v>1367</v>
       </c>
       <c r="E271" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F271" s="12" t="s">
-        <v>1445</v>
+        <v>1234</v>
       </c>
       <c r="G271" s="26">
         <v>4603</v>
@@ -11233,23 +11384,23 @@
       <c r="J271" s="25"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A272" s="25" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B272" s="25" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C272" s="25" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D272" s="25" t="s">
-        <v>1282</v>
+      <c r="A272" s="30" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B272" s="27" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C272" s="28" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D272" s="29" t="s">
+        <v>1368</v>
       </c>
       <c r="E272" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F272" s="12" t="s">
-        <v>1445</v>
+        <v>1234</v>
       </c>
       <c r="G272" s="26">
         <v>9560</v>
@@ -11257,23 +11408,23 @@
       <c r="J272" s="25"/>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A273" s="25" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B273" s="25" t="s">
-        <v>676</v>
-      </c>
-      <c r="C273" s="25" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D273" s="25" t="s">
-        <v>1308</v>
+      <c r="A273" s="30" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B273" s="27" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C273" s="28" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D273" s="29" t="s">
+        <v>1369</v>
       </c>
       <c r="E273" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F273" s="25" t="s">
-        <v>1446</v>
+        <v>1235</v>
       </c>
       <c r="G273" s="26">
         <v>3789</v>
@@ -11281,23 +11432,23 @@
       <c r="J273" s="25"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A274" s="25" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B274" s="25" t="s">
-        <v>736</v>
-      </c>
-      <c r="C274" s="25" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D274" s="25" t="s">
-        <v>1310</v>
+      <c r="A274" s="30" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B274" s="27" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C274" s="28" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D274" s="29" t="s">
+        <v>1370</v>
       </c>
       <c r="E274" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F274" s="12" t="s">
-        <v>1446</v>
+        <v>1235</v>
       </c>
       <c r="G274" s="26">
         <v>4029</v>
@@ -11305,23 +11456,23 @@
       <c r="J274" s="25"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="25" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B275" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="C275" s="25" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D275" s="25" t="s">
-        <v>1312</v>
+      <c r="A275" s="30" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B275" s="27" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C275" s="28" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D275" s="29" t="s">
+        <v>1371</v>
       </c>
       <c r="E275" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F275" s="25" t="s">
-        <v>1446</v>
+        <v>1235</v>
       </c>
       <c r="G275" s="26">
         <v>2775</v>
@@ -11329,23 +11480,23 @@
       <c r="J275" s="25"/>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A276" s="25" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B276" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="C276" s="25" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D276" s="25" t="s">
-        <v>1315</v>
+      <c r="A276" s="30" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B276" s="27" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C276" s="28" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D276" s="29" t="s">
+        <v>1372</v>
       </c>
       <c r="E276" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F276" s="25" t="s">
-        <v>1446</v>
+        <v>1235</v>
       </c>
       <c r="G276" s="26">
         <v>5107</v>
@@ -11353,230 +11504,230 @@
       <c r="J276" s="25"/>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A277" s="25" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B277" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="C277" s="25" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D277" s="25" t="s">
-        <v>1297</v>
+      <c r="A277" s="30" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B277" s="27" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C277" s="28" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D277" s="29" t="s">
+        <v>1373</v>
       </c>
       <c r="E277" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F277" s="12" t="s">
-        <v>1447</v>
+        <v>1236</v>
       </c>
       <c r="G277" s="26">
         <v>5871</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A278" s="25" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B278" s="25" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C278" s="25" t="s">
+      <c r="A278" s="30" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B278" s="27" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C278" s="28" t="s">
         <v>1290</v>
       </c>
-      <c r="D278" s="25" t="s">
-        <v>1318</v>
+      <c r="D278" s="29" t="s">
+        <v>1374</v>
       </c>
       <c r="E278" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F278" s="12" t="s">
-        <v>1447</v>
+        <v>1236</v>
       </c>
       <c r="G278" s="26">
         <v>2917</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A279" s="25" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B279" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="C279" s="25" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D279" s="25" t="s">
-        <v>1258</v>
+      <c r="A279" s="30" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B279" s="27" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C279" s="28" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D279" s="29" t="s">
+        <v>1375</v>
       </c>
       <c r="E279" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F279" s="12" t="s">
-        <v>1447</v>
+        <v>1236</v>
       </c>
       <c r="G279" s="26">
         <v>5454</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A280" s="25" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B280" s="25" t="s">
-        <v>693</v>
-      </c>
-      <c r="C280" s="25" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D280" s="25" t="s">
-        <v>1225</v>
+      <c r="A280" s="30" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B280" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="C280" s="28" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D280" s="29" t="s">
+        <v>1376</v>
       </c>
       <c r="E280" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F280" s="25" t="s">
-        <v>1448</v>
+        <v>1237</v>
       </c>
       <c r="G280" s="26">
         <v>9742</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A281" s="25" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B281" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C281" s="25" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D281" s="25" t="s">
-        <v>1320</v>
+      <c r="A281" s="30" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B281" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="C281" s="28" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D281" s="29" t="s">
+        <v>1377</v>
       </c>
       <c r="E281" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F281" s="25" t="s">
-        <v>1449</v>
+        <v>1238</v>
       </c>
       <c r="G281" s="26">
         <v>9903</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A282" s="25" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B282" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C282" s="25" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D282" s="25" t="s">
-        <v>1322</v>
+      <c r="A282" s="30" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B282" s="27" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C282" s="28" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D282" s="29" t="s">
+        <v>1378</v>
       </c>
       <c r="E282" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F282" s="25" t="s">
-        <v>1449</v>
+        <v>1238</v>
       </c>
       <c r="G282" s="26">
         <v>1024</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A283" s="25" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B283" s="25" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C283" s="25" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D283" s="25" t="s">
-        <v>1325</v>
+      <c r="A283" s="30" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B283" s="27" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C283" s="28" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D283" s="29" t="s">
+        <v>1379</v>
       </c>
       <c r="E283" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F283" s="25" t="s">
-        <v>1450</v>
+        <v>1239</v>
       </c>
       <c r="G283" s="26">
         <v>1212</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A284" s="25" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B284" s="25" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C284" s="25" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D284" s="25" t="s">
-        <v>1328</v>
+      <c r="A284" s="30" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B284" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C284" s="28" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D284" s="29" t="s">
+        <v>1380</v>
       </c>
       <c r="E284" s="25" t="s">
         <v>810</v>
       </c>
       <c r="F284" s="12" t="s">
-        <v>1450</v>
+        <v>1239</v>
       </c>
       <c r="G284" s="26">
         <v>5316</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A285" s="25" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B285" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="C285" s="25" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D285" s="25" t="s">
-        <v>1330</v>
+      <c r="A285" s="30" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B285" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C285" s="28" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D285" s="29" t="s">
+        <v>1381</v>
       </c>
       <c r="E285" s="12" t="s">
         <v>1173</v>
       </c>
       <c r="F285" s="25" t="s">
-        <v>1451</v>
+        <v>1240</v>
       </c>
       <c r="G285" s="26">
         <v>8454</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A286" s="25" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B286" s="25" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C286" s="25" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D286" s="25" t="s">
-        <v>1333</v>
+      <c r="A286" s="30" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B286" s="27" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C286" s="28" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D286" s="29" t="s">
+        <v>1382</v>
       </c>
       <c r="E286" s="25" t="s">
         <v>1173</v>
       </c>
       <c r="F286" s="25" t="s">
-        <v>1452</v>
+        <v>1241</v>
       </c>
       <c r="G286" s="26">
         <v>5052</v>
@@ -11584,46 +11735,46 @@
       <c r="H286" s="25"/>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A287" s="25" t="s">
-        <v>1334</v>
-      </c>
-      <c r="B287" s="25" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C287" s="25" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D287" s="25" t="s">
-        <v>1336</v>
+      <c r="A287" s="30" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B287" s="27" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C287" s="28" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D287" s="29" t="s">
+        <v>1383</v>
       </c>
       <c r="E287" s="25" t="s">
         <v>1173</v>
       </c>
       <c r="F287" s="25" t="s">
-        <v>1452</v>
+        <v>1241</v>
       </c>
       <c r="G287" s="26">
         <v>8293</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A288" s="25" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B288" s="25" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C288" s="25" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D288" s="25" t="s">
-        <v>1339</v>
+      <c r="A288" s="30" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B288" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="C288" s="28" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D288" s="29" t="s">
+        <v>1384</v>
       </c>
       <c r="E288" s="25" t="s">
         <v>1173</v>
       </c>
       <c r="F288" s="12" t="s">
-        <v>1453</v>
+        <v>1242</v>
       </c>
       <c r="G288" s="26">
         <v>3807</v>
@@ -11631,23 +11782,23 @@
       <c r="H288" s="25"/>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A289" s="25" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B289" s="25" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C289" s="25" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D289" s="25" t="s">
-        <v>1261</v>
+      <c r="A289" s="30" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B289" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="C289" s="28" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D289" s="29" t="s">
+        <v>1385</v>
       </c>
       <c r="E289" s="25" t="s">
         <v>1173</v>
       </c>
       <c r="F289" s="12" t="s">
-        <v>1453</v>
+        <v>1242</v>
       </c>
       <c r="G289" s="26">
         <v>6206</v>
@@ -11655,23 +11806,23 @@
       <c r="H289" s="25"/>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A290" s="25" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B290" s="25" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C290" s="25" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D290" s="25" t="s">
-        <v>1343</v>
+      <c r="A290" s="30" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B290" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="C290" s="28" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D290" s="29" t="s">
+        <v>1386</v>
       </c>
       <c r="E290" s="25" t="s">
         <v>1173</v>
       </c>
       <c r="F290" s="25" t="s">
-        <v>1454</v>
+        <v>1243</v>
       </c>
       <c r="G290" s="26">
         <v>2355</v>
@@ -11679,23 +11830,23 @@
       <c r="H290" s="25"/>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A291" s="25" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B291" s="25" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C291" s="25" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D291" s="25" t="s">
-        <v>1346</v>
+      <c r="A291" s="30" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B291" s="27" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C291" s="28" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D291" s="29" t="s">
+        <v>1387</v>
       </c>
       <c r="E291" s="25" t="s">
         <v>1173</v>
       </c>
       <c r="F291" s="12" t="s">
-        <v>1454</v>
+        <v>1243</v>
       </c>
       <c r="G291" s="26">
         <v>5618</v>
@@ -11703,23 +11854,23 @@
       <c r="H291" s="25"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A292" s="25" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B292" s="25" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C292" s="25" t="s">
+      <c r="A292" s="30" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B292" s="27" t="s">
         <v>1266</v>
       </c>
-      <c r="D292" s="25" t="s">
-        <v>1349</v>
+      <c r="C292" s="28" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D292" s="29" t="s">
+        <v>1388</v>
       </c>
       <c r="E292" s="25" t="s">
         <v>1173</v>
       </c>
       <c r="F292" t="s">
-        <v>1454</v>
+        <v>1243</v>
       </c>
       <c r="G292" s="26">
         <v>9491</v>
@@ -11729,23 +11880,23 @@
       <c r="L292" s="12"/>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A293" s="25" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B293" s="25" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C293" s="25" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>1352</v>
+      <c r="A293" s="30" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B293" s="27" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C293" s="28" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D293" s="29" t="s">
+        <v>1389</v>
       </c>
       <c r="E293" s="25" t="s">
         <v>1173</v>
       </c>
       <c r="F293" t="s">
-        <v>1455</v>
+        <v>1244</v>
       </c>
       <c r="G293" s="26">
         <v>4208</v>
@@ -11755,23 +11906,23 @@
       <c r="L293" s="12"/>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A294" s="25" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B294" s="25" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C294" s="25" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>1355</v>
+      <c r="A294" s="30" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B294" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="C294" s="28" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D294" s="29" t="s">
+        <v>1390</v>
       </c>
       <c r="E294" s="25" t="s">
         <v>1173</v>
       </c>
       <c r="F294" t="s">
-        <v>1455</v>
+        <v>1244</v>
       </c>
       <c r="G294" s="26">
         <v>1535</v>
@@ -11781,23 +11932,23 @@
       <c r="L294" s="12"/>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A295" s="25" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B295" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C295" s="25" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>1357</v>
+      <c r="A295" s="30" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B295" s="27" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C295" s="28" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D295" s="29" t="s">
+        <v>1391</v>
       </c>
       <c r="E295" s="25" t="s">
         <v>1173</v>
       </c>
       <c r="F295" t="s">
-        <v>1455</v>
+        <v>1244</v>
       </c>
       <c r="G295" s="26">
         <v>7329</v>
@@ -11807,23 +11958,23 @@
       <c r="L295" s="12"/>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A296" s="25" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B296" s="25" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C296" s="25" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D296" s="25" t="s">
-        <v>1360</v>
+      <c r="A296" s="30" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B296" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="C296" s="28" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D296" s="29" t="s">
+        <v>1392</v>
       </c>
       <c r="E296" s="25" t="s">
         <v>1173</v>
       </c>
       <c r="F296" t="s">
-        <v>1456</v>
+        <v>1245</v>
       </c>
       <c r="G296" s="26">
         <v>9466</v>
@@ -11833,23 +11984,23 @@
       <c r="L296" s="12"/>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A297" s="25" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B297" s="25" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C297" s="25" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D297" s="25" t="s">
-        <v>1363</v>
+      <c r="A297" s="30" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B297" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="C297" s="28" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D297" s="29" t="s">
+        <v>1393</v>
       </c>
       <c r="E297" s="25" t="s">
         <v>1173</v>
       </c>
       <c r="F297" t="s">
-        <v>1456</v>
+        <v>1245</v>
       </c>
       <c r="G297" s="26">
         <v>4875</v>
@@ -11859,23 +12010,23 @@
       <c r="L297" s="12"/>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A298" s="25" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B298" s="25" t="s">
-        <v>759</v>
-      </c>
-      <c r="C298" s="25" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D298" s="25" t="s">
-        <v>1365</v>
+      <c r="A298" s="30" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B298" s="27" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C298" s="28" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D298" s="29" t="s">
+        <v>1394</v>
       </c>
       <c r="E298" s="25" t="s">
         <v>1173</v>
       </c>
       <c r="F298" t="s">
-        <v>1456</v>
+        <v>1245</v>
       </c>
       <c r="G298" s="26">
         <v>1367</v>
@@ -11885,23 +12036,23 @@
       <c r="L298" s="12"/>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A299" s="25" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B299" s="25" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C299" s="25" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D299" s="25" t="s">
-        <v>1368</v>
+      <c r="A299" s="30" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B299" s="27" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C299" s="28" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D299" s="29" t="s">
+        <v>1395</v>
       </c>
       <c r="E299" s="25" t="s">
         <v>1173</v>
       </c>
       <c r="F299" t="s">
-        <v>1457</v>
+        <v>1246</v>
       </c>
       <c r="G299" s="26">
         <v>2566</v>
@@ -11911,23 +12062,23 @@
       <c r="L299" s="12"/>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A300" s="25" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B300" s="25" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C300" s="25" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D300" s="25" t="s">
-        <v>1206</v>
+      <c r="A300" s="30" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B300" s="27" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C300" s="28" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D300" s="29" t="s">
+        <v>1396</v>
       </c>
       <c r="E300" t="s">
         <v>810</v>
       </c>
       <c r="F300" t="s">
-        <v>1458</v>
+        <v>1247</v>
       </c>
       <c r="G300" s="26">
         <v>8035</v>
@@ -11937,23 +12088,23 @@
       <c r="L300" s="12"/>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A301" s="25" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B301" s="25" t="s">
-        <v>583</v>
-      </c>
-      <c r="C301" s="25" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D301" s="25" t="s">
-        <v>1371</v>
+      <c r="A301" s="30" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B301" s="27" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C301" s="28" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D301" s="29" t="s">
+        <v>1397</v>
       </c>
       <c r="E301" t="s">
         <v>810</v>
       </c>
       <c r="F301" t="s">
-        <v>1459</v>
+        <v>1248</v>
       </c>
       <c r="G301" s="26">
         <v>6210</v>
@@ -11963,23 +12114,23 @@
       <c r="L301" s="12"/>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A302" s="25" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B302" s="25" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C302" s="25" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D302" s="25" t="s">
-        <v>1374</v>
+      <c r="A302" s="30" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B302" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="C302" s="28" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D302" s="29" t="s">
+        <v>1398</v>
       </c>
       <c r="E302" t="s">
         <v>802</v>
       </c>
       <c r="F302" t="s">
-        <v>1460</v>
+        <v>1249</v>
       </c>
       <c r="G302" s="26">
         <v>8010</v>
@@ -11989,23 +12140,23 @@
       <c r="L302" s="12"/>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A303" s="25" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B303" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C303" s="25" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D303" s="25" t="s">
-        <v>1376</v>
+      <c r="A303" s="30" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B303" s="27" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C303" s="28" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D303" s="29" t="s">
+        <v>1399</v>
       </c>
       <c r="E303" t="s">
         <v>1002</v>
       </c>
       <c r="F303" t="s">
-        <v>1461</v>
+        <v>1250</v>
       </c>
       <c r="G303" s="26">
         <v>8948</v>
@@ -12015,23 +12166,23 @@
       <c r="L303" s="12"/>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A304" s="25" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B304" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C304" s="25" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D304" s="25" t="s">
-        <v>1339</v>
+      <c r="A304" s="30" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B304" s="27" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C304" s="28" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D304" s="29" t="s">
+        <v>1400</v>
       </c>
       <c r="E304" t="s">
         <v>1002</v>
       </c>
       <c r="F304" t="s">
-        <v>1461</v>
+        <v>1250</v>
       </c>
       <c r="G304" s="26">
         <v>5656</v>
@@ -12040,23 +12191,23 @@
       <c r="L304" s="12"/>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A305" s="25" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B305" s="25" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C305" s="25" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D305" s="25" t="s">
-        <v>1379</v>
+      <c r="A305" s="30" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B305" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="C305" s="28" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D305" s="29" t="s">
+        <v>1401</v>
       </c>
       <c r="E305" t="s">
         <v>1002</v>
       </c>
       <c r="F305" t="s">
-        <v>1461</v>
+        <v>1250</v>
       </c>
       <c r="G305" s="26">
         <v>7171</v>
@@ -12065,20 +12216,20 @@
       <c r="L305" s="12"/>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A306" s="25" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B306" s="25" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C306" s="25" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D306" s="25" t="s">
-        <v>1382</v>
+      <c r="A306" s="30" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B306" s="27" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C306" s="28" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D306" s="29" t="s">
+        <v>1402</v>
       </c>
       <c r="F306" t="s">
-        <v>1462</v>
+        <v>1251</v>
       </c>
       <c r="G306" s="26">
         <v>8646</v>
@@ -12087,20 +12238,20 @@
       <c r="L306" s="12"/>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A307" s="25" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B307" s="25" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C307" s="25" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D307" s="25" t="s">
-        <v>1325</v>
+      <c r="A307" s="30" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B307" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="C307" s="28" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D307" s="29" t="s">
+        <v>1403</v>
       </c>
       <c r="F307" t="s">
-        <v>1462</v>
+        <v>1251</v>
       </c>
       <c r="G307" s="26">
         <v>8547</v>
@@ -12109,20 +12260,20 @@
       <c r="L307" s="12"/>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A308" s="25" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B308" s="25" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C308" s="25" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D308" s="25" t="s">
-        <v>1280</v>
+      <c r="A308" s="30" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B308" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="C308" s="28" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D308" s="29" t="s">
+        <v>1404</v>
       </c>
       <c r="F308" t="s">
-        <v>1462</v>
+        <v>1251</v>
       </c>
       <c r="G308" s="26">
         <v>4166</v>
@@ -12131,20 +12282,20 @@
       <c r="L308" s="12"/>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A309" s="25" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B309" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C309" s="25" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D309" s="25" t="s">
-        <v>1386</v>
+      <c r="A309" s="30" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B309" s="27" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C309" s="28" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D309" s="29" t="s">
+        <v>1405</v>
       </c>
       <c r="F309" t="s">
-        <v>1463</v>
+        <v>1252</v>
       </c>
       <c r="G309" s="26">
         <v>3917</v>
@@ -12153,20 +12304,20 @@
       <c r="L309" s="12"/>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A310" s="25" t="s">
-        <v>1387</v>
-      </c>
-      <c r="B310" s="25" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C310" s="25" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D310" s="25" t="s">
-        <v>1389</v>
+      <c r="A310" s="30" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B310" s="27" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C310" s="28" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D310" s="29" t="s">
+        <v>1406</v>
       </c>
       <c r="F310" t="s">
-        <v>1463</v>
+        <v>1252</v>
       </c>
       <c r="G310" s="26">
         <v>8754</v>
@@ -12175,20 +12326,20 @@
       <c r="L310" s="12"/>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A311" s="25" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B311" s="25" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C311" s="25" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D311" s="25" t="s">
-        <v>1392</v>
+      <c r="A311" s="30" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B311" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C311" s="28" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D311" s="29" t="s">
+        <v>1407</v>
       </c>
       <c r="F311" t="s">
-        <v>1464</v>
+        <v>1253</v>
       </c>
       <c r="G311" s="26">
         <v>7927</v>
@@ -12197,20 +12348,20 @@
       <c r="L311" s="12"/>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A312" s="25" t="s">
-        <v>1393</v>
-      </c>
-      <c r="B312" s="25" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C312" s="25" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D312" s="25" t="s">
-        <v>1395</v>
+      <c r="A312" s="30" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B312" s="27" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C312" s="28" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D312" s="29" t="s">
+        <v>1408</v>
       </c>
       <c r="F312" t="s">
-        <v>1464</v>
+        <v>1253</v>
       </c>
       <c r="G312" s="26">
         <v>2986</v>
@@ -12219,20 +12370,20 @@
       <c r="L312" s="12"/>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A313" s="25" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B313" s="25" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C313" s="25" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D313" s="25" t="s">
-        <v>1398</v>
+      <c r="A313" s="30" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B313" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="C313" s="28" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D313" s="29" t="s">
+        <v>1409</v>
       </c>
       <c r="F313" t="s">
-        <v>1465</v>
+        <v>1254</v>
       </c>
       <c r="G313" s="26">
         <v>2027</v>
@@ -12241,20 +12392,20 @@
       <c r="L313" s="12"/>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A314" s="25" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B314" s="25" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C314" s="25" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D314" s="25" t="s">
-        <v>1192</v>
+      <c r="A314" s="30" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B314" s="27" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C314" s="28" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D314" s="29" t="s">
+        <v>1410</v>
       </c>
       <c r="F314" t="s">
-        <v>1465</v>
+        <v>1254</v>
       </c>
       <c r="G314" s="26">
         <v>2785</v>
@@ -12263,20 +12414,20 @@
       <c r="L314" s="12"/>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A315" s="25" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B315" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C315" s="25" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D315" s="25" t="s">
-        <v>1401</v>
+      <c r="A315" s="30" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B315" s="27" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C315" s="28" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D315" s="29" t="s">
+        <v>1411</v>
       </c>
       <c r="F315" t="s">
-        <v>1466</v>
+        <v>1255</v>
       </c>
       <c r="G315" s="26">
         <v>7378</v>
@@ -12285,20 +12436,20 @@
       <c r="L315" s="12"/>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A316" s="25" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B316" s="25" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C316" s="25" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D316" s="25" t="s">
-        <v>1404</v>
+      <c r="A316" s="30" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B316" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="C316" s="28" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D316" s="29" t="s">
+        <v>1412</v>
       </c>
       <c r="F316" t="s">
-        <v>1466</v>
+        <v>1255</v>
       </c>
       <c r="G316" s="26">
         <v>5662</v>
@@ -12307,20 +12458,20 @@
       <c r="L316" s="12"/>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A317" s="25" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B317" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C317" s="25" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D317" s="25" t="s">
-        <v>1406</v>
+      <c r="A317" s="30" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B317" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C317" s="28" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D317" s="29" t="s">
+        <v>1413</v>
       </c>
       <c r="F317" t="s">
-        <v>1466</v>
+        <v>1255</v>
       </c>
       <c r="G317" s="26">
         <v>1351</v>
@@ -12329,20 +12480,20 @@
       <c r="L317" s="12"/>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A318" s="25" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B318" s="25" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C318" s="25" t="s">
+      <c r="A318" s="30" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B318" s="27" t="s">
         <v>1272</v>
       </c>
-      <c r="D318" s="25" t="s">
-        <v>1409</v>
+      <c r="C318" s="28" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D318" s="29" t="s">
+        <v>1414</v>
       </c>
       <c r="F318" t="s">
-        <v>1466</v>
+        <v>1255</v>
       </c>
       <c r="G318" s="26">
         <v>9162</v>
@@ -12351,23 +12502,23 @@
       <c r="L318" s="12"/>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A319" s="25" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B319" s="25" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C319" s="25" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D319" s="25" t="s">
-        <v>1242</v>
+      <c r="A319" s="30" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B319" s="27" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C319" s="28" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D319" s="29" t="s">
+        <v>1415</v>
       </c>
       <c r="E319" t="s">
         <v>876</v>
       </c>
       <c r="F319" t="s">
-        <v>1467</v>
+        <v>1256</v>
       </c>
       <c r="G319" s="26">
         <v>7428</v>
@@ -12376,23 +12527,23 @@
       <c r="L319" s="12"/>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A320" s="25" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B320" s="25" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C320" s="25" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D320" s="25" t="s">
-        <v>1414</v>
+      <c r="A320" s="30" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B320" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="C320" s="28" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D320" s="29" t="s">
+        <v>1416</v>
       </c>
       <c r="E320" t="s">
         <v>876</v>
       </c>
       <c r="F320" t="s">
-        <v>1467</v>
+        <v>1256</v>
       </c>
       <c r="G320" s="26">
         <v>2121</v>
@@ -12401,23 +12552,23 @@
       <c r="L320" s="12"/>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A321" s="25" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B321" s="25" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C321" s="25" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D321" s="25" t="s">
-        <v>1417</v>
+      <c r="A321" s="30" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B321" s="27" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C321" s="28" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D321" s="29" t="s">
+        <v>1204</v>
       </c>
       <c r="E321" t="s">
         <v>876</v>
       </c>
       <c r="F321" t="s">
-        <v>1467</v>
+        <v>1256</v>
       </c>
       <c r="G321" s="26">
         <v>9697</v>
@@ -12426,23 +12577,23 @@
       <c r="L321" s="12"/>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A322" s="25" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B322" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="C322" s="25" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D322" s="25" t="s">
-        <v>1419</v>
+      <c r="A322" s="30" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B322" s="27" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C322" s="28" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D322" s="29" t="s">
+        <v>1417</v>
       </c>
       <c r="E322" t="s">
         <v>876</v>
       </c>
       <c r="F322" t="s">
-        <v>1467</v>
+        <v>1256</v>
       </c>
       <c r="G322" s="26">
         <v>1360</v>
@@ -12451,23 +12602,23 @@
       <c r="L322" s="12"/>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A323" s="25" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B323" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C323" s="25" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D323" s="25" t="s">
-        <v>1421</v>
+      <c r="A323" s="30" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B323" s="27" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C323" s="28" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D323" s="29" t="s">
+        <v>1218</v>
       </c>
       <c r="E323" t="s">
         <v>876</v>
       </c>
       <c r="F323" t="s">
-        <v>1468</v>
+        <v>1257</v>
       </c>
       <c r="G323" s="26">
         <v>5420</v>
@@ -12476,23 +12627,23 @@
       <c r="L323" s="12"/>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A324" s="25" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B324" s="25" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C324" s="25" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D324" s="25" t="s">
-        <v>1424</v>
+      <c r="A324" s="30" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B324" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C324" s="28" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D324" s="29" t="s">
+        <v>1418</v>
       </c>
       <c r="E324" t="s">
         <v>876</v>
       </c>
       <c r="F324" t="s">
-        <v>1468</v>
+        <v>1257</v>
       </c>
       <c r="G324" s="26">
         <v>2687</v>
@@ -12501,23 +12652,23 @@
       <c r="L324" s="12"/>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A325" s="25" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B325" s="25" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C325" s="25" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D325" s="25" t="s">
-        <v>1427</v>
+      <c r="A325" s="30" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B325" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="C325" s="28" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D325" s="29" t="s">
+        <v>1419</v>
       </c>
       <c r="E325" t="s">
         <v>876</v>
       </c>
       <c r="F325" t="s">
-        <v>1468</v>
+        <v>1257</v>
       </c>
       <c r="G325" s="26">
         <v>9095</v>
@@ -12526,23 +12677,23 @@
       <c r="L325" s="12"/>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A326" s="25" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B326" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="C326" s="25" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D326" s="25" t="s">
-        <v>1429</v>
+      <c r="A326" s="30" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B326" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C326" s="28" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D326" s="29" t="s">
+        <v>1420</v>
       </c>
       <c r="E326" t="s">
         <v>876</v>
       </c>
       <c r="F326" t="s">
-        <v>1468</v>
+        <v>1257</v>
       </c>
       <c r="G326" s="26">
         <v>2409</v>
@@ -16619,8 +16770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K239"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B193" sqref="B189:D193"/>
+    <sheetView tabSelected="1" topLeftCell="D112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22843,7 +22994,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -22851,9 +23002,11 @@
       <c r="C193" t="s">
         <v>1166</v>
       </c>
-      <c r="D193" s="9"/>
+      <c r="D193" s="9" t="s">
+        <v>876</v>
+      </c>
       <c r="E193" s="12" t="s">
-        <v>1114</v>
+        <v>831</v>
       </c>
       <c r="F193" s="9">
         <v>20</v>
@@ -22876,7 +23029,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -22884,7 +23037,7 @@
       <c r="C194" t="s">
         <v>1166</v>
       </c>
-      <c r="D194" s="9" t="s">
+      <c r="D194" s="12" t="s">
         <v>876</v>
       </c>
       <c r="E194" s="9" t="s">
@@ -22911,7 +23064,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -22919,8 +23072,8 @@
       <c r="C195" t="s">
         <v>1166</v>
       </c>
-      <c r="D195" s="12" t="s">
-        <v>876</v>
+      <c r="D195" t="s">
+        <v>841</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>831</v>
@@ -22943,6 +23096,15 @@
       <c r="K195" t="s">
         <v>1178</v>
       </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E196" s="30"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" s="9"/>

--- a/GCMDataBase.xlsx
+++ b/GCMDataBase.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="1518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="1518">
   <si>
     <t>domainName</t>
   </si>
@@ -16770,8 +16770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E191" sqref="E191"/>
+    <sheetView tabSelected="1" topLeftCell="E85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K138" sqref="K138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21055,11 +21055,17 @@
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="5"/>
-      <c r="F128" s="9"/>
+      <c r="F128" s="9">
+        <v>21</v>
+      </c>
       <c r="G128" s="9"/>
       <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="6"/>
+      <c r="I128" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="J128" s="30" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -21073,11 +21079,17 @@
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="5"/>
-      <c r="F129" s="9"/>
+      <c r="F129" s="9">
+        <v>6</v>
+      </c>
       <c r="G129" s="9"/>
       <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
+      <c r="I129" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="J129" s="30" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -21091,11 +21103,17 @@
       </c>
       <c r="D130" s="9"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="9"/>
+      <c r="F130" s="9">
+        <v>24</v>
+      </c>
       <c r="G130" s="9"/>
       <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
+      <c r="I130" s="30" t="s">
+        <v>833</v>
+      </c>
+      <c r="J130" s="30" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
@@ -21109,11 +21127,17 @@
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="5"/>
-      <c r="F131" s="9"/>
+      <c r="F131" s="9">
+        <v>15</v>
+      </c>
       <c r="G131" s="9"/>
       <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
+      <c r="I131" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="J131" s="30" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
@@ -21127,11 +21151,17 @@
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="9"/>
+      <c r="F132" s="9">
+        <v>20</v>
+      </c>
       <c r="G132" s="9"/>
       <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
+      <c r="I132" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="J132" s="30" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -21145,11 +21175,17 @@
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="9"/>
+      <c r="F133" s="9">
+        <v>21</v>
+      </c>
       <c r="G133" s="9"/>
       <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
+      <c r="I133" s="30" t="s">
+        <v>833</v>
+      </c>
+      <c r="J133" s="30" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -21163,11 +21199,17 @@
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="5"/>
-      <c r="F134" s="9"/>
+      <c r="F134" s="9">
+        <v>24</v>
+      </c>
       <c r="G134" s="9"/>
       <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
+      <c r="I134" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="J134" s="30" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -21181,11 +21223,17 @@
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="9"/>
+      <c r="F135" s="9">
+        <v>12</v>
+      </c>
       <c r="G135" s="9"/>
       <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
+      <c r="I135" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="J135" s="30" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -21199,11 +21247,17 @@
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="5"/>
-      <c r="F136" s="9"/>
+      <c r="F136" s="9">
+        <v>8</v>
+      </c>
       <c r="G136" s="9"/>
       <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
+      <c r="I136" s="30" t="s">
+        <v>833</v>
+      </c>
+      <c r="J136" s="30" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
@@ -21217,11 +21271,17 @@
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="5"/>
-      <c r="F137" s="9"/>
+      <c r="F137" s="9">
+        <v>20</v>
+      </c>
       <c r="G137" s="9"/>
       <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
+      <c r="I137" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="J137" s="30" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -21235,11 +21295,17 @@
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="5"/>
-      <c r="F138" s="9"/>
+      <c r="F138" s="9">
+        <v>20</v>
+      </c>
       <c r="G138" s="9"/>
       <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
+      <c r="I138" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="J138" s="30" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
@@ -21253,11 +21319,17 @@
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="9"/>
+      <c r="F139" s="9">
+        <v>20</v>
+      </c>
       <c r="G139" s="9"/>
       <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
+      <c r="I139" s="30" t="s">
+        <v>833</v>
+      </c>
+      <c r="J139" s="30" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
@@ -21271,11 +21343,17 @@
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="9"/>
+      <c r="F140" s="9">
+        <v>20</v>
+      </c>
       <c r="G140" s="9"/>
       <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
+      <c r="I140" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="J140" s="30" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
@@ -21289,11 +21367,17 @@
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="9"/>
+      <c r="F141" s="9">
+        <v>41</v>
+      </c>
       <c r="G141" s="9"/>
       <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
+      <c r="I141" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="J141" s="30" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
@@ -21307,11 +21391,17 @@
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="9"/>
+      <c r="F142" s="9">
+        <v>5</v>
+      </c>
       <c r="G142" s="9"/>
       <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
+      <c r="I142" s="30" t="s">
+        <v>833</v>
+      </c>
+      <c r="J142" s="30" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -21325,11 +21415,17 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="9"/>
+      <c r="F143" s="9">
+        <v>9</v>
+      </c>
       <c r="G143" s="9"/>
       <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
+      <c r="I143" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="J143" s="30" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
@@ -21343,11 +21439,17 @@
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="9"/>
+      <c r="F144" s="9">
+        <v>4</v>
+      </c>
       <c r="G144" s="9"/>
       <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
+      <c r="I144" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="J144" s="30" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
